--- a/ASHRAE901_ApartmentHighRise_STD2019_InternationalFallsTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_InternationalFallsTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2094.21</t>
+          <t>2365.09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1270.43</t>
+          <t>2359.40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>485.28</t>
+          <t>807.16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1204.97</t>
+          <t>2327.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>870.06</t>
+          <t>1682.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>869.29</t>
+          <t>1682.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1675.52</t>
+          <t>1804.14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1594.79</t>
+          <t>1848.04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2900.33</t>
+          <t>3072.76</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2255.15</t>
+          <t>3146.42</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2267.66</t>
+          <t>2478.85</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1727.60</t>
+          <t>2423.38</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1441.04</t>
+          <t>1871.55</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1389.70</t>
+          <t>1854.80</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1713.00</t>
+          <t>1784.29</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1701.34</t>
+          <t>1781.53</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2936.01</t>
+          <t>3119.20</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2300.38</t>
+          <t>3167.30</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2297.73</t>
+          <t>2458.92</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1797.89</t>
+          <t>2442.99</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1665.38</t>
+          <t>1929.07</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1651.40</t>
+          <t>1911.84</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1745.27</t>
+          <t>1819.53</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1736.76</t>
+          <t>1809.87</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2989.60</t>
+          <t>3136.69</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2418.42</t>
+          <t>3179.87</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2407.49</t>
+          <t>2468.55</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1774.28</t>
+          <t>2446.03</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1669.77</t>
+          <t>1943.20</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1655.81</t>
+          <t>1927.18</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1762.63</t>
+          <t>1808.91</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1749.75</t>
+          <t>1814.97</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2999.44</t>
+          <t>3140.85</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2316.12</t>
+          <t>3186.97</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2415.01</t>
+          <t>2455.77</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1778.54</t>
+          <t>2445.86</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1480.12</t>
+          <t>1911.13</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1422.41</t>
+          <t>1896.67</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1769.95</t>
+          <t>1783.10</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1757.01</t>
+          <t>1776.44</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3006.88</t>
+          <t>3143.18</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2315.41</t>
+          <t>3191.66</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2420.71</t>
+          <t>2459.45</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1777.17</t>
+          <t>2447.33</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1379.35</t>
+          <t>1913.81</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1368.60</t>
+          <t>1899.37</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1775.50</t>
+          <t>1801.22</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1762.51</t>
+          <t>1787.89</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3017.32</t>
+          <t>3115.96</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2313.41</t>
+          <t>3195.59</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2426.44</t>
+          <t>2461.16</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1775.33</t>
+          <t>2447.12</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1379.12</t>
+          <t>1921.18</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1368.45</t>
+          <t>1907.29</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1780.94</t>
+          <t>1785.81</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1767.92</t>
+          <t>1772.20</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3026.60</t>
+          <t>3110.32</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2315.35</t>
+          <t>3205.06</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2434.54</t>
+          <t>2447.86</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1778.02</t>
+          <t>2452.89</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1383.69</t>
+          <t>1930.07</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1373.27</t>
+          <t>1916.41</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1791.97</t>
+          <t>1795.51</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1779.03</t>
+          <t>1781.91</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3135.41</t>
+          <t>3191.11</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2383.26</t>
+          <t>3286.27</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2499.17</t>
+          <t>2515.21</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1807.80</t>
+          <t>2498.18</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1443.48</t>
+          <t>2002.45</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1433.45</t>
+          <t>1988.30</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1864.99</t>
+          <t>1863.19</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1851.97</t>
+          <t>1850.01</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3916.90</t>
+          <t>4043.68</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2674.44</t>
+          <t>3907.02</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2983.72</t>
+          <t>3049.46</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2097.33</t>
+          <t>2932.48</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1681.47</t>
+          <t>2396.09</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1658.58</t>
+          <t>2363.01</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2300.99</t>
+          <t>2412.72</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2301.22</t>
+          <t>2414.03</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2005.94</t>
+          <t>2386.73</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>227.67</t>
+          <t>2381.63</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>350.54</t>
+          <t>765.97</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>140.43</t>
+          <t>2353.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>207.28</t>
+          <t>1679.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>208.50</t>
+          <t>1681.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1451.35</t>
+          <t>1793.75</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1480.69</t>
+          <t>1835.87</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2759.87</t>
+          <t>3103.15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2663.51</t>
+          <t>3213.09</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2131.65</t>
+          <t>2481.43</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1991.11</t>
+          <t>2429.15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1551.97</t>
+          <t>1884.43</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1535.13</t>
+          <t>1869.86</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1465.65</t>
+          <t>1756.48</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1451.17</t>
+          <t>1748.47</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2804.20</t>
+          <t>3128.77</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2716.66</t>
+          <t>3265.80</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2163.15</t>
+          <t>2496.00</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2038.89</t>
+          <t>2457.92</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1583.82</t>
+          <t>1911.82</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1567.40</t>
+          <t>1897.25</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1517.28</t>
+          <t>1784.92</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1504.83</t>
+          <t>1782.75</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2821.31</t>
+          <t>3128.52</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2729.50</t>
+          <t>3275.16</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2175.24</t>
+          <t>2488.97</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2048.21</t>
+          <t>2469.10</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1592.59</t>
+          <t>1923.89</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1576.15</t>
+          <t>1908.75</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1533.07</t>
+          <t>1788.45</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1517.97</t>
+          <t>1796.61</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2831.62</t>
+          <t>3129.49</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2729.66</t>
+          <t>3284.58</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2182.33</t>
+          <t>2493.60</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2050.94</t>
+          <t>2472.60</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1593.56</t>
+          <t>1928.46</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1577.16</t>
+          <t>1915.62</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1523.02</t>
+          <t>1805.04</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1493.62</t>
+          <t>1791.47</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2838.31</t>
+          <t>3133.04</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2726.15</t>
+          <t>3296.14</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2184.82</t>
+          <t>2496.05</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2047.41</t>
+          <t>2476.29</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1592.29</t>
+          <t>1933.74</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1576.05</t>
+          <t>1919.06</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1509.77</t>
+          <t>1807.00</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1495.35</t>
+          <t>1795.52</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2843.67</t>
+          <t>3138.74</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2721.75</t>
+          <t>3301.85</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2160.08</t>
+          <t>2501.60</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2043.79</t>
+          <t>2480.88</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1590.90</t>
+          <t>1936.29</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1574.65</t>
+          <t>1921.05</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1510.37</t>
+          <t>1808.56</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1496.17</t>
+          <t>1795.87</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2856.48</t>
+          <t>3150.05</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2720.51</t>
+          <t>3316.26</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2140.73</t>
+          <t>2529.06</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2043.93</t>
+          <t>2490.96</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1593.75</t>
+          <t>1946.88</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1577.89</t>
+          <t>1931.74</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1513.43</t>
+          <t>1816.71</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1499.50</t>
+          <t>1806.23</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2940.91</t>
+          <t>3251.65</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2805.92</t>
+          <t>3430.39</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2169.80</t>
+          <t>2593.86</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2074.74</t>
+          <t>2543.38</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1660.27</t>
+          <t>2028.61</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1644.20</t>
+          <t>2014.43</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1559.04</t>
+          <t>1890.65</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1545.93</t>
+          <t>1878.03</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3815.60</t>
+          <t>4055.53</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2990.47</t>
+          <t>4085.59</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2819.69</t>
+          <t>3178.74</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2464.55</t>
+          <t>3024.18</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1983.72</t>
+          <t>2388.41</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1943.34</t>
+          <t>2357.85</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2110.16</t>
+          <t>2410.83</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2110.62</t>
+          <t>2419.02</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1650.44</t>
+          <t>2360.10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1563.33</t>
+          <t>2412.13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>316.94</t>
+          <t>559.04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1510.99</t>
+          <t>2348.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1061.89</t>
+          <t>1672.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1063.10</t>
+          <t>1673.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1220.99</t>
+          <t>1764.90</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1247.51</t>
+          <t>1802.05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2395.39</t>
+          <t>3121.83</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2320.31</t>
+          <t>3252.81</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1871.90</t>
+          <t>2463.14</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1779.51</t>
+          <t>2423.26</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1297.58</t>
+          <t>1918.31</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1287.42</t>
+          <t>1901.99</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1248.39</t>
+          <t>1766.21</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1249.35</t>
+          <t>1758.09</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2438.48</t>
+          <t>3164.57</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2389.43</t>
+          <t>3285.28</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1917.53</t>
+          <t>2482.27</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1838.39</t>
+          <t>2459.14</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1360.57</t>
+          <t>1945.28</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1350.40</t>
+          <t>1927.70</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1320.42</t>
+          <t>1801.40</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1313.91</t>
+          <t>1788.88</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2460.28</t>
+          <t>3184.89</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2408.78</t>
+          <t>3296.30</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1929.37</t>
+          <t>2486.68</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1851.31</t>
+          <t>2471.95</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1371.17</t>
+          <t>1960.14</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1360.33</t>
+          <t>1944.71</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1327.18</t>
+          <t>1799.28</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1325.20</t>
+          <t>1785.57</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2472.18</t>
+          <t>3197.48</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2407.65</t>
+          <t>3301.45</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1930.87</t>
+          <t>2488.69</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1856.91</t>
+          <t>2472.82</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1364.43</t>
+          <t>1965.03</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1360.19</t>
+          <t>1949.64</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1318.84</t>
+          <t>1728.77</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1309.08</t>
+          <t>1723.14</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2477.23</t>
+          <t>3211.92</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2398.66</t>
+          <t>3306.08</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1927.68</t>
+          <t>2489.70</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1852.15</t>
+          <t>2475.46</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1331.50</t>
+          <t>1967.68</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1329.64</t>
+          <t>1952.35</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1294.66</t>
+          <t>1732.58</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1295.80</t>
+          <t>1723.71</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2481.27</t>
+          <t>3225.34</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2394.66</t>
+          <t>3311.87</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1934.52</t>
+          <t>2494.04</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1849.24</t>
+          <t>2473.38</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1330.39</t>
+          <t>1971.66</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1320.63</t>
+          <t>1956.37</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1279.03</t>
+          <t>1741.37</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1268.87</t>
+          <t>1725.00</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2487.89</t>
+          <t>3239.82</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2402.24</t>
+          <t>3321.99</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1952.35</t>
+          <t>2506.21</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1855.39</t>
+          <t>2480.82</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1335.25</t>
+          <t>1982.31</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1325.66</t>
+          <t>1967.19</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1284.96</t>
+          <t>1755.72</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1274.88</t>
+          <t>1739.37</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2566.20</t>
+          <t>3336.03</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2493.77</t>
+          <t>3414.10</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1991.32</t>
+          <t>2539.90</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1910.66</t>
+          <t>2526.81</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1419.47</t>
+          <t>2063.70</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1429.03</t>
+          <t>2048.70</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1359.73</t>
+          <t>1847.17</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1350.42</t>
+          <t>1830.06</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3308.54</t>
+          <t>4108.51</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3256.94</t>
+          <t>4167.23</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2659.12</t>
+          <t>3085.00</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2461.78</t>
+          <t>3017.47</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1897.53</t>
+          <t>2411.99</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1879.29</t>
+          <t>2374.85</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1892.37</t>
+          <t>2333.34</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1901.38</t>
+          <t>2336.46</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1491.86</t>
+          <t>2278.52</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1571.33</t>
+          <t>2323.41</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>254.94</t>
+          <t>437.74</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1508.24</t>
+          <t>2375.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1102.03</t>
+          <t>1680.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1103.63</t>
+          <t>1683.41</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1134.07</t>
+          <t>1767.67</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1177.55</t>
+          <t>1803.74</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2284.37</t>
+          <t>2965.31</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2291.60</t>
+          <t>3094.36</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1789.17</t>
+          <t>2417.24</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1813.40</t>
+          <t>2435.01</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1332.07</t>
+          <t>1869.90</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1320.63</t>
+          <t>1854.89</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1153.47</t>
+          <t>1667.97</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1146.20</t>
+          <t>1663.33</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2317.91</t>
+          <t>2990.71</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2343.69</t>
+          <t>3143.15</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1788.64</t>
+          <t>2413.85</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1851.07</t>
+          <t>2458.24</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1364.87</t>
+          <t>1884.69</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1354.80</t>
+          <t>1869.83</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1209.38</t>
+          <t>1715.52</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1215.26</t>
+          <t>1706.75</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2328.12</t>
+          <t>2990.07</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2402.56</t>
+          <t>3159.12</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1791.78</t>
+          <t>2410.77</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1858.62</t>
+          <t>2467.69</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1372.47</t>
+          <t>1892.83</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1362.55</t>
+          <t>1878.17</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1216.71</t>
+          <t>1709.36</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1239.28</t>
+          <t>1715.54</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2333.19</t>
+          <t>2992.19</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2403.57</t>
+          <t>3181.10</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1795.08</t>
+          <t>2412.07</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1866.19</t>
+          <t>2481.12</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1370.79</t>
+          <t>1896.71</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1360.86</t>
+          <t>1882.02</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1219.11</t>
+          <t>1710.89</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1228.79</t>
+          <t>1719.93</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2336.75</t>
+          <t>3008.68</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2402.42</t>
+          <t>3200.03</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1797.82</t>
+          <t>2413.85</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1868.34</t>
+          <t>2476.61</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1368.69</t>
+          <t>1900.19</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1358.74</t>
+          <t>1885.54</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1220.86</t>
+          <t>1716.32</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1228.14</t>
+          <t>1703.56</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2342.76</t>
+          <t>3022.79</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2402.21</t>
+          <t>3210.05</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1801.06</t>
+          <t>2416.80</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1870.96</t>
+          <t>2473.89</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1368.34</t>
+          <t>1904.18</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1357.51</t>
+          <t>1889.54</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1205.52</t>
+          <t>1721.69</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1217.35</t>
+          <t>1708.93</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2351.16</t>
+          <t>3041.63</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2409.47</t>
+          <t>3226.74</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1808.59</t>
+          <t>2431.24</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1878.17</t>
+          <t>2478.84</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1376.13</t>
+          <t>1913.89</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1365.40</t>
+          <t>1899.29</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1212.39</t>
+          <t>1732.08</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1221.09</t>
+          <t>1719.08</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2427.65</t>
+          <t>3144.15</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2485.48</t>
+          <t>3334.02</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1848.32</t>
+          <t>2467.73</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1913.20</t>
+          <t>2524.32</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1444.72</t>
+          <t>1992.08</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1434.49</t>
+          <t>1977.38</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1265.65</t>
+          <t>1800.20</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1262.45</t>
+          <t>1787.08</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3167.80</t>
+          <t>3893.39</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3173.22</t>
+          <t>3975.37</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2428.10</t>
+          <t>3013.29</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2329.24</t>
+          <t>3054.60</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1791.84</t>
+          <t>2315.58</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1767.17</t>
+          <t>2285.33</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1732.90</t>
+          <t>2257.15</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1735.00</t>
+          <t>2267.35</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1740.32</t>
+          <t>2276.54</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1854.72</t>
+          <t>2362.01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>41.52</t>
+          <t>888.86</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1751.84</t>
+          <t>2394.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1231.86</t>
+          <t>1670.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1233.22</t>
+          <t>1674.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1269.85</t>
+          <t>1707.07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1306.20</t>
+          <t>1743.91</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2425.83</t>
+          <t>2914.43</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2636.71</t>
+          <t>3110.76</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1968.13</t>
+          <t>2373.03</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1978.47</t>
+          <t>2417.15</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1502.93</t>
+          <t>1883.22</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1492.46</t>
+          <t>1868.38</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1285.78</t>
+          <t>1637.01</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1275.85</t>
+          <t>1629.24</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2456.19</t>
+          <t>2938.67</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2663.93</t>
+          <t>3133.55</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1951.46</t>
+          <t>2378.67</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2012.77</t>
+          <t>2429.76</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1530.53</t>
+          <t>1899.94</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1519.52</t>
+          <t>1885.19</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1311.86</t>
+          <t>1667.35</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1304.70</t>
+          <t>1653.25</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2462.82</t>
+          <t>2950.00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2667.74</t>
+          <t>3143.41</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1960.43</t>
+          <t>2380.96</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2018.77</t>
+          <t>2436.10</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1539.98</t>
+          <t>1907.35</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1528.73</t>
+          <t>1892.64</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1326.15</t>
+          <t>1676.19</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1314.69</t>
+          <t>1661.81</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2464.27</t>
+          <t>2958.08</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2666.95</t>
+          <t>3150.33</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1967.48</t>
+          <t>2381.48</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2023.14</t>
+          <t>2436.92</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1544.46</t>
+          <t>1912.21</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1532.10</t>
+          <t>1897.53</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1331.82</t>
+          <t>1681.79</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1320.26</t>
+          <t>1667.35</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2471.34</t>
+          <t>2951.65</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2667.84</t>
+          <t>3147.21</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1973.34</t>
+          <t>2376.75</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2026.44</t>
+          <t>2435.75</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1547.71</t>
+          <t>1898.23</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1535.51</t>
+          <t>1883.77</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1335.85</t>
+          <t>1670.93</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1324.27</t>
+          <t>1656.67</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2477.61</t>
+          <t>2958.60</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2669.19</t>
+          <t>3155.83</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1981.85</t>
+          <t>2376.79</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2028.25</t>
+          <t>2436.68</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1550.55</t>
+          <t>1902.45</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1538.04</t>
+          <t>1888.03</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1339.79</t>
+          <t>1675.73</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1328.20</t>
+          <t>1661.47</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2485.94</t>
+          <t>2976.32</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2676.24</t>
+          <t>3167.31</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1992.58</t>
+          <t>2390.82</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2034.52</t>
+          <t>2443.00</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1558.47</t>
+          <t>1912.42</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1545.86</t>
+          <t>1898.10</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1348.38</t>
+          <t>1686.02</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1336.88</t>
+          <t>1671.85</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2564.34</t>
+          <t>3059.85</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2764.52</t>
+          <t>3251.71</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2035.26</t>
+          <t>2426.01</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2088.76</t>
+          <t>2488.94</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1626.93</t>
+          <t>1988.05</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1615.73</t>
+          <t>1973.83</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1416.48</t>
+          <t>1759.78</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1405.10</t>
+          <t>1745.70</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3179.58</t>
+          <t>3608.76</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3300.08</t>
+          <t>3767.19</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2607.75</t>
+          <t>2916.39</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2543.01</t>
+          <t>2972.87</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1943.99</t>
+          <t>2301.39</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1914.52</t>
+          <t>2272.01</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1797.80</t>
+          <t>2182.27</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1798.06</t>
+          <t>2196.97</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1458.93</t>
+          <t>2207.28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1574.31</t>
+          <t>2288.28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>350.91</t>
+          <t>791.71</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1475.58</t>
+          <t>2306.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1005.61</t>
+          <t>1604.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1009.50</t>
+          <t>1608.42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1010.23</t>
+          <t>1644.87</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1067.27</t>
+          <t>1680.09</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2083.00</t>
+          <t>2814.33</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2293.20</t>
+          <t>3012.22</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1651.28</t>
+          <t>2252.43</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1683.69</t>
+          <t>2310.24</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1267.64</t>
+          <t>1820.04</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1256.85</t>
+          <t>1805.59</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1045.14</t>
+          <t>1558.73</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1044.99</t>
+          <t>1550.99</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2101.42</t>
+          <t>2841.49</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2308.60</t>
+          <t>3038.63</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1657.28</t>
+          <t>2257.76</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1731.95</t>
+          <t>2335.20</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1284.25</t>
+          <t>1838.08</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1273.90</t>
+          <t>1823.68</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1097.84</t>
+          <t>1590.94</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1107.13</t>
+          <t>1576.18</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2107.67</t>
+          <t>2856.35</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2313.32</t>
+          <t>3052.69</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1656.76</t>
+          <t>2264.65</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1740.09</t>
+          <t>2347.01</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1289.56</t>
+          <t>1847.41</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1279.40</t>
+          <t>1833.06</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1112.27</t>
+          <t>1605.19</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1117.11</t>
+          <t>1589.83</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2111.28</t>
+          <t>2867.62</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2315.94</t>
+          <t>3063.32</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1656.42</t>
+          <t>2270.83</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1744.10</t>
+          <t>2351.86</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1291.64</t>
+          <t>1854.04</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1281.55</t>
+          <t>1839.73</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1117.87</t>
+          <t>1615.53</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1119.96</t>
+          <t>1600.05</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2114.03</t>
+          <t>2877.20</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2317.95</t>
+          <t>3072.40</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1655.94</t>
+          <t>2276.19</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1743.31</t>
+          <t>2355.84</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1292.87</t>
+          <t>1859.61</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1282.79</t>
+          <t>1845.33</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1115.15</t>
+          <t>1624.23</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1119.64</t>
+          <t>1608.73</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2119.33</t>
+          <t>2886.42</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2320.28</t>
+          <t>3081.20</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1655.91</t>
+          <t>2281.74</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1742.73</t>
+          <t>2360.21</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1294.40</t>
+          <t>1865.34</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1284.33</t>
+          <t>1851.09</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1117.06</t>
+          <t>1632.81</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1115.87</t>
+          <t>1617.32</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2126.72</t>
+          <t>2899.93</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2327.29</t>
+          <t>3094.53</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1659.35</t>
+          <t>2297.69</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1745.99</t>
+          <t>2369.12</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1300.29</t>
+          <t>1876.32</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1290.26</t>
+          <t>1862.15</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1116.50</t>
+          <t>1647.22</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1114.34</t>
+          <t>1631.76</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2200.97</t>
+          <t>2986.67</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2407.08</t>
+          <t>3178.38</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1696.97</t>
+          <t>2333.49</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1782.00</t>
+          <t>2412.01</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1364.19</t>
+          <t>1949.04</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1354.52</t>
+          <t>1934.82</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1151.95</t>
+          <t>1722.76</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1148.69</t>
+          <t>1708.79</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2644.15</t>
+          <t>3460.61</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2858.30</t>
+          <t>3622.73</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2059.73</t>
+          <t>2741.24</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2138.09</t>
+          <t>2803.35</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1627.69</t>
+          <t>2234.55</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1611.32</t>
+          <t>2202.56</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1487.25</t>
+          <t>2128.16</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1488.96</t>
+          <t>2128.70</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1560.05</t>
+          <t>2118.66</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1670.41</t>
+          <t>2196.96</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>568.13</t>
+          <t>1085.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1580.63</t>
+          <t>2223.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1049.68</t>
+          <t>1580.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1052.55</t>
+          <t>1583.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1067.40</t>
+          <t>1630.61</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1131.23</t>
+          <t>1668.67</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2168.17</t>
+          <t>2701.27</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2366.49</t>
+          <t>2890.16</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1706.17</t>
+          <t>2197.26</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1745.80</t>
+          <t>2236.90</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1261.42</t>
+          <t>1747.44</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1251.02</t>
+          <t>1734.75</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1056.31</t>
+          <t>1521.90</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1087.98</t>
+          <t>1517.82</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2180.64</t>
+          <t>2726.12</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2374.97</t>
+          <t>2911.37</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1680.94</t>
+          <t>2190.67</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1760.93</t>
+          <t>2256.97</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1270.19</t>
+          <t>1762.99</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1260.41</t>
+          <t>1749.41</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1088.30</t>
+          <t>1548.39</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1106.60</t>
+          <t>1535.51</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2184.91</t>
+          <t>2739.62</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2378.01</t>
+          <t>2924.14</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1676.01</t>
+          <t>2193.69</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1761.90</t>
+          <t>2275.14</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1273.52</t>
+          <t>1771.76</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1263.97</t>
+          <t>1758.22</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1099.65</t>
+          <t>1557.49</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1109.54</t>
+          <t>1545.45</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2187.34</t>
+          <t>2750.92</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2379.80</t>
+          <t>2933.96</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1675.49</t>
+          <t>2203.97</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1765.64</t>
+          <t>2279.93</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1275.28</t>
+          <t>1778.07</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1265.81</t>
+          <t>1764.56</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1104.03</t>
+          <t>1564.69</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1112.91</t>
+          <t>1552.64</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2189.24</t>
+          <t>2760.47</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2381.27</t>
+          <t>2942.36</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1675.68</t>
+          <t>2209.10</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1765.15</t>
+          <t>2287.04</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1276.63</t>
+          <t>1783.37</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1267.24</t>
+          <t>1769.88</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1107.44</t>
+          <t>1570.71</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1112.02</t>
+          <t>1558.68</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2194.05</t>
+          <t>2769.57</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2383.28</t>
+          <t>2950.52</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1676.76</t>
+          <t>2214.54</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1765.54</t>
+          <t>2293.68</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1278.51</t>
+          <t>1790.07</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1269.18</t>
+          <t>1776.61</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1102.61</t>
+          <t>1576.74</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1115.53</t>
+          <t>1564.76</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2201.29</t>
+          <t>2782.71</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2390.32</t>
+          <t>2963.28</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1682.19</t>
+          <t>2232.18</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1770.57</t>
+          <t>2305.20</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1285.21</t>
+          <t>1800.62</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1275.99</t>
+          <t>1787.23</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1100.86</t>
+          <t>1588.92</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1110.50</t>
+          <t>1575.73</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2275.28</t>
+          <t>2863.13</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2468.94</t>
+          <t>3046.98</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1717.13</t>
+          <t>2271.71</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1801.27</t>
+          <t>2348.37</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1350.03</t>
+          <t>1870.09</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1341.10</t>
+          <t>1856.64</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1142.78</t>
+          <t>1657.82</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1134.62</t>
+          <t>1644.64</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2722.47</t>
+          <t>3329.99</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2918.01</t>
+          <t>3479.19</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2141.26</t>
+          <t>2701.56</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2206.60</t>
+          <t>2763.66</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1679.90</t>
+          <t>2148.36</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1655.94</t>
+          <t>2118.24</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1520.76</t>
+          <t>2049.34</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1523.76</t>
+          <t>2050.27</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1598.37</t>
+          <t>2076.88</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1645.41</t>
+          <t>2150.29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>780.57</t>
+          <t>1347.70</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1572.08</t>
+          <t>2130.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1040.21</t>
+          <t>1478.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1042.93</t>
+          <t>1481.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1121.06</t>
+          <t>1528.30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1207.01</t>
+          <t>1612.26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2180.45</t>
+          <t>2703.18</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2288.68</t>
+          <t>2889.63</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1738.09</t>
+          <t>2200.63</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1704.46</t>
+          <t>2213.87</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1237.37</t>
+          <t>1657.59</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1226.55</t>
+          <t>1645.32</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1098.68</t>
+          <t>1481.98</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1097.07</t>
+          <t>1481.13</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2182.76</t>
+          <t>2727.17</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2288.67</t>
+          <t>2912.03</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1697.24</t>
+          <t>2195.32</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1710.93</t>
+          <t>2244.91</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1240.24</t>
+          <t>1669.48</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1230.08</t>
+          <t>1659.84</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1114.53</t>
+          <t>1506.48</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1112.99</t>
+          <t>1496.91</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2181.89</t>
+          <t>2743.14</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2287.02</t>
+          <t>2924.00</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1685.46</t>
+          <t>2202.49</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1708.39</t>
+          <t>2262.11</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1240.79</t>
+          <t>1679.22</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1231.04</t>
+          <t>1672.25</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1123.28</t>
+          <t>1515.76</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1116.31</t>
+          <t>1505.02</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2180.88</t>
+          <t>2756.70</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2287.55</t>
+          <t>2934.56</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1682.05</t>
+          <t>2212.11</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1710.05</t>
+          <t>2274.30</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1241.34</t>
+          <t>1687.88</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1231.51</t>
+          <t>1681.13</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1126.04</t>
+          <t>1522.78</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1118.57</t>
+          <t>1511.74</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2180.09</t>
+          <t>2766.83</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2288.92</t>
+          <t>2945.24</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1681.07</t>
+          <t>2222.35</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1708.35</t>
+          <t>2285.29</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1241.97</t>
+          <t>1697.12</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1232.05</t>
+          <t>1687.76</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1128.35</t>
+          <t>1528.90</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1120.75</t>
+          <t>1517.82</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2182.69</t>
+          <t>2778.39</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2290.99</t>
+          <t>2955.40</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1681.34</t>
+          <t>2230.99</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1708.20</t>
+          <t>2296.66</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1243.28</t>
+          <t>1705.31</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1233.32</t>
+          <t>1693.14</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1130.95</t>
+          <t>1535.17</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1123.30</t>
+          <t>1524.13</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2187.71</t>
+          <t>2793.49</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2298.06</t>
+          <t>2969.71</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1685.81</t>
+          <t>2251.38</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1713.16</t>
+          <t>2310.17</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1249.48</t>
+          <t>1715.93</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1239.54</t>
+          <t>1708.71</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1137.61</t>
+          <t>1546.76</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1129.92</t>
+          <t>1535.79</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2259.23</t>
+          <t>2884.47</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2372.55</t>
+          <t>3059.67</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1718.34</t>
+          <t>2288.59</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1741.50</t>
+          <t>2356.45</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1311.11</t>
+          <t>1789.76</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1302.62</t>
+          <t>1787.82</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1196.69</t>
+          <t>1619.53</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1188.04</t>
+          <t>1608.56</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2679.03</t>
+          <t>3219.24</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2804.58</t>
+          <t>3349.53</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2167.45</t>
+          <t>2737.06</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2165.77</t>
+          <t>2785.50</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1632.61</t>
+          <t>2104.77</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1607.95</t>
+          <t>2074.08</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1551.93</t>
+          <t>2040.11</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1558.23</t>
+          <t>2044.82</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1678.17</t>
+          <t>2267.33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1723.98</t>
+          <t>2353.97</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>899.75</t>
+          <t>1456.28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1590.29</t>
+          <t>2355.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1158.64</t>
+          <t>1668.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1174.10</t>
+          <t>1672.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1267.46</t>
+          <t>1726.47</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1347.76</t>
+          <t>1764.61</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2258.88</t>
+          <t>2876.95</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2344.15</t>
+          <t>3097.58</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1851.63</t>
+          <t>2356.25</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1790.77</t>
+          <t>2359.94</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1355.95</t>
+          <t>1843.93</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1344.16</t>
+          <t>1828.89</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1219.62</t>
+          <t>1631.56</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1261.60</t>
+          <t>1629.60</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2261.31</t>
+          <t>2898.21</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2322.44</t>
+          <t>3123.17</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1825.10</t>
+          <t>2348.12</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1791.68</t>
+          <t>2380.59</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1356.75</t>
+          <t>1858.98</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1348.74</t>
+          <t>1844.68</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1229.83</t>
+          <t>1658.37</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1248.64</t>
+          <t>1646.57</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2260.52</t>
+          <t>2915.09</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2323.46</t>
+          <t>3137.51</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1820.01</t>
+          <t>2350.82</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1790.93</t>
+          <t>2393.62</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1356.77</t>
+          <t>1870.04</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1349.37</t>
+          <t>1855.75</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1229.60</t>
+          <t>1668.53</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1243.38</t>
+          <t>1656.42</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2259.51</t>
+          <t>2928.44</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2328.53</t>
+          <t>3168.05</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1821.36</t>
+          <t>2357.93</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1793.36</t>
+          <t>2399.71</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1357.77</t>
+          <t>1878.26</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1350.32</t>
+          <t>1863.98</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1226.76</t>
+          <t>1676.30</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1240.89</t>
+          <t>1663.95</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2258.81</t>
+          <t>2939.91</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2334.07</t>
+          <t>3177.90</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1824.20</t>
+          <t>2364.10</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1797.31</t>
+          <t>2404.71</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1359.12</t>
+          <t>1884.64</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1351.56</t>
+          <t>1869.05</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1229.61</t>
+          <t>1682.91</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1240.45</t>
+          <t>1670.53</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2261.38</t>
+          <t>2950.85</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2339.75</t>
+          <t>3187.53</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1827.78</t>
+          <t>2369.19</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1801.44</t>
+          <t>2410.01</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1361.40</t>
+          <t>1890.50</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1353.70</t>
+          <t>1876.30</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1225.63</t>
+          <t>1689.56</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1239.50</t>
+          <t>1676.58</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2266.12</t>
+          <t>2966.36</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2349.10</t>
+          <t>3203.07</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1835.06</t>
+          <t>2387.75</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1804.53</t>
+          <t>2419.93</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1368.49</t>
+          <t>1903.22</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1360.70</t>
+          <t>1889.08</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1221.99</t>
+          <t>1701.32</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1231.91</t>
+          <t>1688.39</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2336.39</t>
+          <t>3050.90</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2418.10</t>
+          <t>3296.92</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1870.70</t>
+          <t>2422.69</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1840.99</t>
+          <t>2464.24</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1418.18</t>
+          <t>1979.08</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1419.32</t>
+          <t>1964.90</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1271.55</t>
+          <t>1772.89</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1263.14</t>
+          <t>1759.93</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2788.42</t>
+          <t>3565.30</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2844.70</t>
+          <t>3787.53</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2340.54</t>
+          <t>2871.49</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2281.92</t>
+          <t>2939.75</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1711.45</t>
+          <t>2298.66</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1739.40</t>
+          <t>2266.72</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1681.80</t>
+          <t>2186.76</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1686.16</t>
+          <t>2188.94</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2128.90</t>
+          <t>2388.84</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2143.98</t>
+          <t>2426.38</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1189.84</t>
+          <t>1675.97</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2102.82</t>
+          <t>2415.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1460.66</t>
+          <t>1697.83</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1465.39</t>
+          <t>1699.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1559.82</t>
+          <t>1841.38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1588.11</t>
+          <t>1878.89</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2816.92</t>
+          <t>3067.83</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2866.91</t>
+          <t>3145.00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2241.72</t>
+          <t>2486.55</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2242.19</t>
+          <t>2430.72</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1681.72</t>
+          <t>1923.12</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1672.63</t>
+          <t>1908.53</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1516.86</t>
+          <t>1712.83</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1499.14</t>
+          <t>1721.61</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2844.06</t>
+          <t>3094.07</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2885.96</t>
+          <t>3162.50</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2305.02</t>
+          <t>2516.11</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2263.01</t>
+          <t>2454.68</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1694.24</t>
+          <t>1927.15</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1685.52</t>
+          <t>1911.43</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1539.54</t>
+          <t>1743.82</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1533.78</t>
+          <t>1735.98</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2862.51</t>
+          <t>3111.82</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2898.49</t>
+          <t>3166.69</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2302.16</t>
+          <t>2521.26</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2273.57</t>
+          <t>2464.95</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1711.69</t>
+          <t>1890.69</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1692.86</t>
+          <t>1874.12</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1556.57</t>
+          <t>1769.94</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1545.46</t>
+          <t>1743.37</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2869.74</t>
+          <t>3124.14</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2918.28</t>
+          <t>3180.63</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2311.05</t>
+          <t>2519.31</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2282.47</t>
+          <t>2466.44</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1723.15</t>
+          <t>1895.42</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1710.49</t>
+          <t>1881.11</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1563.60</t>
+          <t>1771.37</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1551.77</t>
+          <t>1749.99</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2879.27</t>
+          <t>3133.43</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2936.25</t>
+          <t>3200.32</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2314.74</t>
+          <t>2519.36</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2287.11</t>
+          <t>2467.53</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1715.05</t>
+          <t>1902.26</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1714.97</t>
+          <t>1887.50</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1572.03</t>
+          <t>1756.97</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1554.95</t>
+          <t>1765.83</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2891.83</t>
+          <t>3144.43</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2935.71</t>
+          <t>3212.85</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2317.54</t>
+          <t>2522.26</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2292.97</t>
+          <t>2469.53</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1706.82</t>
+          <t>1908.20</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1708.09</t>
+          <t>1893.46</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1575.53</t>
+          <t>1754.72</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1565.79</t>
+          <t>1751.28</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2895.12</t>
+          <t>3159.30</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2936.68</t>
+          <t>3233.74</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2324.14</t>
+          <t>2534.10</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2300.77</t>
+          <t>2481.50</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1714.49</t>
+          <t>1919.42</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1705.28</t>
+          <t>1904.75</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1586.59</t>
+          <t>1760.08</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1575.28</t>
+          <t>1750.63</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2975.02</t>
+          <t>3240.51</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2999.52</t>
+          <t>3310.54</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2365.06</t>
+          <t>2564.13</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2334.96</t>
+          <t>2531.96</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1782.81</t>
+          <t>1998.47</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1773.75</t>
+          <t>1982.53</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1663.92</t>
+          <t>1836.55</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1648.62</t>
+          <t>1825.66</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3662.25</t>
+          <t>3891.10</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3693.12</t>
+          <t>3906.86</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2976.54</t>
+          <t>3153.83</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2926.68</t>
+          <t>3049.22</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2161.56</t>
+          <t>2348.20</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2155.94</t>
+          <t>2318.13</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2120.76</t>
+          <t>2367.84</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2128.28</t>
+          <t>2376.02</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2282.07</t>
+          <t>2371.30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2225.09</t>
+          <t>2461.47</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>997.49</t>
+          <t>1404.24</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2152.88</t>
+          <t>2428.99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1531.20</t>
+          <t>1740.14</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1534.06</t>
+          <t>1743.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1791.36</t>
+          <t>1833.04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1816.41</t>
+          <t>1882.56</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3139.67</t>
+          <t>3050.55</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2971.05</t>
+          <t>3209.67</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2515.67</t>
+          <t>2512.37</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2293.17</t>
+          <t>2478.97</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1768.55</t>
+          <t>1932.74</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1756.26</t>
+          <t>1943.65</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1753.13</t>
+          <t>1748.39</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1742.18</t>
+          <t>1758.92</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3170.57</t>
+          <t>3080.57</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2984.57</t>
+          <t>3244.22</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2507.62</t>
+          <t>2513.45</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2308.92</t>
+          <t>2507.04</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1777.13</t>
+          <t>1972.77</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1764.93</t>
+          <t>1967.96</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1740.65</t>
+          <t>1779.22</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1731.06</t>
+          <t>1782.29</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3088.62</t>
+          <t>3098.50</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2980.97</t>
+          <t>3258.84</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2496.98</t>
+          <t>2504.59</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2303.40</t>
+          <t>2521.00</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1775.53</t>
+          <t>1966.36</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1763.26</t>
+          <t>1973.75</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1788.87</t>
+          <t>1790.59</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1774.97</t>
+          <t>1779.80</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3080.77</t>
+          <t>3112.01</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2973.33</t>
+          <t>3270.02</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2480.48</t>
+          <t>2509.77</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2297.15</t>
+          <t>2526.46</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1771.63</t>
+          <t>1972.59</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1759.20</t>
+          <t>1958.35</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1794.74</t>
+          <t>1794.46</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1780.67</t>
+          <t>1786.01</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3081.75</t>
+          <t>3123.36</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2853.97</t>
+          <t>3279.86</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2478.18</t>
+          <t>2511.35</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2285.26</t>
+          <t>2530.77</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1767.57</t>
+          <t>1977.20</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1754.79</t>
+          <t>1962.99</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1799.50</t>
+          <t>1798.38</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1785.55</t>
+          <t>1790.61</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3081.93</t>
+          <t>3134.05</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2857.46</t>
+          <t>3287.82</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2480.37</t>
+          <t>2517.41</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2198.45</t>
+          <t>2534.54</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1702.54</t>
+          <t>1981.13</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1689.82</t>
+          <t>1967.02</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1804.69</t>
+          <t>1800.23</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1790.99</t>
+          <t>1795.73</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3094.16</t>
+          <t>3145.76</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2866.97</t>
+          <t>3302.09</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2491.30</t>
+          <t>2533.65</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2205.24</t>
+          <t>2543.76</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1710.89</t>
+          <t>1992.44</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1698.26</t>
+          <t>1978.58</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1815.61</t>
+          <t>1809.77</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1802.00</t>
+          <t>1804.73</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3209.57</t>
+          <t>3230.15</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2956.69</t>
+          <t>3393.51</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2569.87</t>
+          <t>2566.39</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2245.40</t>
+          <t>2591.61</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1823.76</t>
+          <t>2096.89</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1837.27</t>
+          <t>2084.39</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1917.51</t>
+          <t>1882.59</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1903.94</t>
+          <t>1868.65</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3985.68</t>
+          <t>3954.11</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3541.13</t>
+          <t>4039.43</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3114.85</t>
+          <t>3173.98</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2643.20</t>
+          <t>3065.93</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2115.92</t>
+          <t>2445.71</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2088.20</t>
+          <t>2409.07</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2346.45</t>
+          <t>2420.23</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2348.51</t>
+          <t>2431.22</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2419.12</t>
+          <t>2364.50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1998.39</t>
+          <t>2426.44</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>480.80</t>
+          <t>702.56</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1913.56</t>
+          <t>2384.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1382.76</t>
+          <t>1716.85</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1383.45</t>
+          <t>1716.84</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1762.14</t>
+          <t>1844.69</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1842.32</t>
+          <t>1883.55</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3139.40</t>
+          <t>3128.24</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2912.59</t>
+          <t>3238.74</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2557.38</t>
+          <t>2488.05</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2225.73</t>
+          <t>2447.43</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1741.91</t>
+          <t>1926.74</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1717.82</t>
+          <t>1911.06</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1782.30</t>
+          <t>1794.09</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1771.19</t>
+          <t>1783.83</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3169.32</t>
+          <t>3154.73</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2940.75</t>
+          <t>3273.95</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2589.72</t>
+          <t>2481.60</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2252.92</t>
+          <t>2478.78</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1757.45</t>
+          <t>1949.98</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1743.10</t>
+          <t>1934.48</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1812.04</t>
+          <t>1822.34</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1805.68</t>
+          <t>1809.23</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3183.59</t>
+          <t>3087.02</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2943.94</t>
+          <t>3288.83</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2589.37</t>
+          <t>2490.22</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2253.58</t>
+          <t>2522.68</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1752.94</t>
+          <t>1961.28</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1738.65</t>
+          <t>1946.44</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1822.08</t>
+          <t>1829.83</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1808.72</t>
+          <t>1814.08</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3213.33</t>
+          <t>3094.06</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2714.84</t>
+          <t>3297.13</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2577.46</t>
+          <t>2492.21</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2078.70</t>
+          <t>2494.68</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1749.57</t>
+          <t>1968.86</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1735.33</t>
+          <t>1953.27</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1832.13</t>
+          <t>1809.06</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1825.20</t>
+          <t>1803.87</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3230.77</t>
+          <t>3103.39</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2710.20</t>
+          <t>3304.65</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2578.82</t>
+          <t>2496.54</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2073.98</t>
+          <t>2496.50</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1710.41</t>
+          <t>1974.97</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1697.08</t>
+          <t>1959.22</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1833.29</t>
+          <t>1806.19</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1821.88</t>
+          <t>1793.84</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3245.00</t>
+          <t>3112.14</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2708.08</t>
+          <t>3312.61</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2579.92</t>
+          <t>2501.74</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2071.64</t>
+          <t>2496.83</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1618.68</t>
+          <t>1981.06</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1605.44</t>
+          <t>1965.21</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1838.16</t>
+          <t>1816.12</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1824.85</t>
+          <t>1800.73</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3258.38</t>
+          <t>3125.13</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2711.91</t>
+          <t>3325.25</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2589.73</t>
+          <t>2512.55</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2074.77</t>
+          <t>2501.25</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1623.84</t>
+          <t>1992.47</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1610.72</t>
+          <t>1976.66</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1849.70</t>
+          <t>1826.23</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1837.16</t>
+          <t>1810.96</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3349.89</t>
+          <t>3207.22</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2783.24</t>
+          <t>3412.95</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2643.31</t>
+          <t>2544.71</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2100.50</t>
+          <t>2548.02</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1833.43</t>
+          <t>2066.98</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1845.07</t>
+          <t>2051.00</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1934.66</t>
+          <t>1896.75</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1922.43</t>
+          <t>1881.62</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4270.62</t>
+          <t>4062.52</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3166.67</t>
+          <t>4068.45</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3283.97</t>
+          <t>3138.73</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2603.37</t>
+          <t>2997.77</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2064.50</t>
+          <t>2445.04</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2042.96</t>
+          <t>2411.85</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2432.50</t>
+          <t>2468.00</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2434.29</t>
+          <t>2475.14</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1458.93</t>
+          <t>2076.88</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>227.67</t>
+          <t>2150.29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>41.52</t>
+          <t>437.74</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>140.43</t>
+          <t>2130.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>207.28</t>
+          <t>1478.18</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>208.50</t>
+          <t>1481.33</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1010.23</t>
+          <t>1528.30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1067.27</t>
+          <t>1612.26</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2083.00</t>
+          <t>2701.27</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2255.15</t>
+          <t>2889.63</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1651.28</t>
+          <t>2197.26</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1683.69</t>
+          <t>2213.87</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1237.37</t>
+          <t>1657.59</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1226.55</t>
+          <t>1645.32</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1045.14</t>
+          <t>1481.98</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1044.99</t>
+          <t>1481.13</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2101.42</t>
+          <t>2726.12</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2288.67</t>
+          <t>2911.37</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1657.28</t>
+          <t>2190.67</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1710.93</t>
+          <t>2244.91</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1240.24</t>
+          <t>1669.48</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1230.08</t>
+          <t>1659.84</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1088.30</t>
+          <t>1506.48</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1106.60</t>
+          <t>1496.91</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2107.67</t>
+          <t>2739.62</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2287.02</t>
+          <t>2924.00</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1656.76</t>
+          <t>2193.69</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1708.39</t>
+          <t>2262.11</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1240.79</t>
+          <t>1679.22</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1231.04</t>
+          <t>1672.25</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1099.65</t>
+          <t>1515.76</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1109.54</t>
+          <t>1505.02</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2111.28</t>
+          <t>2750.92</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2287.55</t>
+          <t>2933.96</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1656.42</t>
+          <t>2203.97</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1710.05</t>
+          <t>2274.30</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1241.34</t>
+          <t>1687.88</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1231.51</t>
+          <t>1681.13</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1104.03</t>
+          <t>1522.78</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1112.91</t>
+          <t>1511.74</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2114.03</t>
+          <t>2760.47</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2288.92</t>
+          <t>2942.36</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1655.94</t>
+          <t>2209.10</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1708.35</t>
+          <t>2285.29</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1241.97</t>
+          <t>1697.12</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1232.05</t>
+          <t>1687.76</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1107.44</t>
+          <t>1528.90</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1112.02</t>
+          <t>1517.82</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2119.33</t>
+          <t>2769.57</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2290.99</t>
+          <t>2950.52</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1655.91</t>
+          <t>2214.54</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1708.20</t>
+          <t>2293.68</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1243.28</t>
+          <t>1705.31</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1233.32</t>
+          <t>1693.14</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1102.61</t>
+          <t>1535.17</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1115.53</t>
+          <t>1524.13</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2126.72</t>
+          <t>2782.71</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2298.06</t>
+          <t>2963.28</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1659.35</t>
+          <t>2232.18</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>1713.16</t>
+          <t>2305.20</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1249.48</t>
+          <t>1715.93</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1239.54</t>
+          <t>1708.71</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1100.86</t>
+          <t>1546.76</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1110.50</t>
+          <t>1535.79</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2200.97</t>
+          <t>2863.13</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2372.55</t>
+          <t>3046.98</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1696.97</t>
+          <t>2271.71</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>1741.50</t>
+          <t>2348.37</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1311.11</t>
+          <t>1789.76</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1302.62</t>
+          <t>1787.82</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1142.78</t>
+          <t>1619.53</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1134.62</t>
+          <t>1608.56</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2644.15</t>
+          <t>3219.24</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2674.44</t>
+          <t>3349.53</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2059.73</t>
+          <t>2701.56</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2097.33</t>
+          <t>2763.66</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1627.69</t>
+          <t>2104.77</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1607.95</t>
+          <t>2074.08</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1487.25</t>
+          <t>2040.11</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1488.96</t>
+          <t>2044.82</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2419.12</t>
+          <t>2388.84</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2225.09</t>
+          <t>2461.47</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1189.84</t>
+          <t>1675.97</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2152.88</t>
+          <t>2428.99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1531.20</t>
+          <t>1740.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1534.06</t>
+          <t>1743.68</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1791.36</t>
+          <t>1844.69</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1842.32</t>
+          <t>1883.55</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3139.67</t>
+          <t>3128.24</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2971.05</t>
+          <t>3252.81</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2557.38</t>
+          <t>2512.37</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2293.17</t>
+          <t>2478.97</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1768.55</t>
+          <t>1932.74</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1756.26</t>
+          <t>1943.65</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1782.30</t>
+          <t>1794.09</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1771.19</t>
+          <t>1783.83</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3170.57</t>
+          <t>3164.57</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2984.57</t>
+          <t>3285.28</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2589.72</t>
+          <t>2516.11</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2308.92</t>
+          <t>2507.04</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1777.13</t>
+          <t>1972.77</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1764.93</t>
+          <t>1967.96</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1812.04</t>
+          <t>1822.34</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1805.68</t>
+          <t>1809.87</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3183.59</t>
+          <t>3184.89</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2980.97</t>
+          <t>3296.30</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2589.37</t>
+          <t>2521.26</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2303.40</t>
+          <t>2522.68</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1775.53</t>
+          <t>1966.36</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1763.26</t>
+          <t>1973.75</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1822.08</t>
+          <t>1829.83</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1808.72</t>
+          <t>1814.97</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3213.33</t>
+          <t>3197.48</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2973.33</t>
+          <t>3301.45</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2577.46</t>
+          <t>2519.31</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2297.15</t>
+          <t>2526.46</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1771.63</t>
+          <t>1972.59</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1759.20</t>
+          <t>1958.35</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1832.13</t>
+          <t>1809.06</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1825.20</t>
+          <t>1803.87</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3230.77</t>
+          <t>3211.92</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2936.25</t>
+          <t>3306.08</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2578.82</t>
+          <t>2519.36</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2287.11</t>
+          <t>2530.77</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1767.57</t>
+          <t>1977.20</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1754.79</t>
+          <t>1962.99</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1833.29</t>
+          <t>1807.00</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1821.88</t>
+          <t>1795.52</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3245.00</t>
+          <t>3225.34</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2935.71</t>
+          <t>3312.61</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2579.92</t>
+          <t>2522.26</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2292.97</t>
+          <t>2534.54</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1706.82</t>
+          <t>1981.13</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1708.09</t>
+          <t>1967.02</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1838.16</t>
+          <t>1816.12</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1824.85</t>
+          <t>1800.73</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3258.38</t>
+          <t>3239.82</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2936.68</t>
+          <t>3325.25</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2589.73</t>
+          <t>2534.10</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2300.77</t>
+          <t>2543.76</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1714.49</t>
+          <t>1992.47</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1705.28</t>
+          <t>1978.58</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1849.70</t>
+          <t>1826.23</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1837.16</t>
+          <t>1810.96</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3349.89</t>
+          <t>3336.03</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2999.52</t>
+          <t>3430.39</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2643.31</t>
+          <t>2593.86</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2334.96</t>
+          <t>2591.61</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1833.43</t>
+          <t>2096.89</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1845.07</t>
+          <t>2084.39</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1934.66</t>
+          <t>1896.75</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1922.43</t>
+          <t>1881.62</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4270.62</t>
+          <t>4108.51</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3693.12</t>
+          <t>4167.23</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3283.97</t>
+          <t>3178.74</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2926.68</t>
+          <t>3065.93</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2161.56</t>
+          <t>2445.71</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2155.94</t>
+          <t>2411.85</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2432.50</t>
+          <t>2468.00</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2434.29</t>
+          <t>2475.14</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_InternationalFallsTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_InternationalFallsTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2365.09</t>
+          <t>2400.09</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2359.40</t>
+          <t>2073.63</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>807.16</t>
+          <t>1036.73</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2327.66</t>
+          <t>1967.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1682.76</t>
+          <t>1472.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1682.83</t>
+          <t>1473.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1804.14</t>
+          <t>1760.84</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1848.04</t>
+          <t>1845.70</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3072.76</t>
+          <t>3236.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3146.42</t>
+          <t>2866.40</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2478.85</t>
+          <t>2605.26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2423.38</t>
+          <t>2155.62</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1871.55</t>
+          <t>1734.21</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1854.80</t>
+          <t>1719.18</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1784.29</t>
+          <t>1782.40</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1781.53</t>
+          <t>1778.25</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3119.20</t>
+          <t>3254.83</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3167.30</t>
+          <t>2901.18</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2458.92</t>
+          <t>2577.76</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2442.99</t>
+          <t>2195.25</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1929.07</t>
+          <t>1749.40</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1911.84</t>
+          <t>1734.38</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1819.53</t>
+          <t>1805.38</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1809.87</t>
+          <t>1798.24</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3136.69</t>
+          <t>3258.23</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3179.87</t>
+          <t>2914.54</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2468.55</t>
+          <t>2580.75</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2446.03</t>
+          <t>2199.55</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1943.20</t>
+          <t>1749.07</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1927.18</t>
+          <t>1737.32</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1808.91</t>
+          <t>1820.87</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1814.97</t>
+          <t>1808.72</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3140.85</t>
+          <t>3258.78</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3186.97</t>
+          <t>2939.53</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2455.77</t>
+          <t>2572.79</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2445.86</t>
+          <t>2191.18</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1911.13</t>
+          <t>1750.63</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1896.67</t>
+          <t>1735.75</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1783.10</t>
+          <t>1856.14</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1776.44</t>
+          <t>1818.81</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3143.18</t>
+          <t>3256.76</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3191.66</t>
+          <t>2944.85</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2459.45</t>
+          <t>2557.38</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2447.33</t>
+          <t>2291.37</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1913.81</t>
+          <t>1772.45</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1899.37</t>
+          <t>1753.05</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1801.22</t>
+          <t>1785.95</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1787.89</t>
+          <t>1771.63</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3115.96</t>
+          <t>3257.98</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3195.59</t>
+          <t>2949.74</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2461.16</t>
+          <t>2537.88</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2447.12</t>
+          <t>2275.44</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1921.18</t>
+          <t>1771.48</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1907.29</t>
+          <t>1751.41</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1785.81</t>
+          <t>1774.54</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1772.20</t>
+          <t>1759.98</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3110.32</t>
+          <t>3264.43</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3205.06</t>
+          <t>2958.89</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2447.86</t>
+          <t>2548.13</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2452.89</t>
+          <t>2274.56</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1930.07</t>
+          <t>1776.06</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1916.41</t>
+          <t>1756.77</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1795.51</t>
+          <t>1780.45</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1781.91</t>
+          <t>1765.57</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3191.11</t>
+          <t>3353.14</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3286.27</t>
+          <t>3079.24</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2515.21</t>
+          <t>2593.62</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2498.18</t>
+          <t>2321.79</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2002.45</t>
+          <t>1843.43</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1988.30</t>
+          <t>1835.69</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1863.19</t>
+          <t>1837.12</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1850.01</t>
+          <t>1822.85</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4043.68</t>
+          <t>4101.11</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3907.02</t>
+          <t>3690.83</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3049.46</t>
+          <t>3193.61</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2932.48</t>
+          <t>2626.96</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2396.09</t>
+          <t>2126.93</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2363.01</t>
+          <t>2046.70</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2412.72</t>
+          <t>2387.02</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2414.03</t>
+          <t>2408.44</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2386.73</t>
+          <t>2464.81</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2381.63</t>
+          <t>2289.12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>765.97</t>
+          <t>826.23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2353.98</t>
+          <t>2142.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1679.14</t>
+          <t>1543.67</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1681.89</t>
+          <t>1542.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1793.75</t>
+          <t>1765.57</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1835.87</t>
+          <t>1860.23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3103.15</t>
+          <t>3274.04</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3213.09</t>
+          <t>3113.69</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2481.43</t>
+          <t>2622.40</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2429.15</t>
+          <t>2354.82</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1884.43</t>
+          <t>1816.98</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1869.86</t>
+          <t>1797.25</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1756.48</t>
+          <t>1804.03</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1748.47</t>
+          <t>1797.44</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3128.77</t>
+          <t>3299.67</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3265.80</t>
+          <t>3142.58</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2496.00</t>
+          <t>2605.13</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2457.92</t>
+          <t>2387.05</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1911.82</t>
+          <t>1831.96</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1897.25</t>
+          <t>1813.76</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1784.92</t>
+          <t>1837.84</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1782.75</t>
+          <t>1823.84</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3128.52</t>
+          <t>3307.65</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3275.16</t>
+          <t>3144.36</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2488.97</t>
+          <t>2603.86</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2469.10</t>
+          <t>2384.65</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1923.89</t>
+          <t>1832.68</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1908.75</t>
+          <t>1819.04</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1788.45</t>
+          <t>1845.88</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1796.61</t>
+          <t>1833.31</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3129.49</t>
+          <t>3309.53</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3284.58</t>
+          <t>3139.65</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2493.60</t>
+          <t>2607.08</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2472.60</t>
+          <t>2374.59</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1928.46</t>
+          <t>1833.47</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1915.62</t>
+          <t>1771.87</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1805.04</t>
+          <t>1858.82</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1791.47</t>
+          <t>1832.92</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3133.04</t>
+          <t>3310.28</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3296.14</t>
+          <t>3134.15</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2496.05</t>
+          <t>2598.61</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2476.29</t>
+          <t>2311.16</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1933.74</t>
+          <t>1786.05</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1919.06</t>
+          <t>1767.61</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1807.00</t>
+          <t>1785.88</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1795.52</t>
+          <t>1780.81</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3138.74</t>
+          <t>3309.15</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3301.85</t>
+          <t>3131.17</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2501.60</t>
+          <t>2593.97</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2480.88</t>
+          <t>2304.84</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1936.29</t>
+          <t>1784.69</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1921.05</t>
+          <t>1765.39</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1808.56</t>
+          <t>1789.97</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1795.87</t>
+          <t>1776.38</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3150.05</t>
+          <t>3300.20</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3316.26</t>
+          <t>3134.80</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2529.06</t>
+          <t>2588.55</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2490.96</t>
+          <t>2305.16</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1946.88</t>
+          <t>1789.31</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1931.74</t>
+          <t>1769.99</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1816.71</t>
+          <t>1799.32</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1806.23</t>
+          <t>1785.66</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3251.65</t>
+          <t>3385.80</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3430.39</t>
+          <t>3100.24</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2593.86</t>
+          <t>2590.22</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2543.38</t>
+          <t>2335.87</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2028.61</t>
+          <t>1857.65</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2014.43</t>
+          <t>1837.46</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1890.65</t>
+          <t>1867.86</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1878.03</t>
+          <t>1854.46</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4055.53</t>
+          <t>4190.71</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>4085.59</t>
+          <t>3493.83</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3178.74</t>
+          <t>3221.53</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3024.18</t>
+          <t>2635.10</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2388.41</t>
+          <t>2094.11</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2357.85</t>
+          <t>2068.30</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2410.83</t>
+          <t>2472.13</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2419.02</t>
+          <t>2477.39</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2360.10</t>
+          <t>2294.21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2412.13</t>
+          <t>2392.41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>559.04</t>
+          <t>649.19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2348.56</t>
+          <t>2329.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1672.33</t>
+          <t>1663.83</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1673.74</t>
+          <t>1664.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1764.90</t>
+          <t>1715.05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1802.05</t>
+          <t>1752.92</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3121.83</t>
+          <t>3159.26</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3252.81</t>
+          <t>3176.82</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2463.14</t>
+          <t>2543.05</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2423.26</t>
+          <t>2463.92</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1918.31</t>
+          <t>1802.48</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1901.99</t>
+          <t>1800.21</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1766.21</t>
+          <t>1737.66</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1758.09</t>
+          <t>1729.35</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3164.57</t>
+          <t>3203.25</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3285.28</t>
+          <t>3225.74</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2482.27</t>
+          <t>2569.79</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2459.14</t>
+          <t>2504.15</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1945.28</t>
+          <t>1843.51</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1927.70</t>
+          <t>1828.99</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1801.40</t>
+          <t>1773.00</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1788.88</t>
+          <t>1759.27</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3184.89</t>
+          <t>3213.75</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3296.30</t>
+          <t>3258.30</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2486.68</t>
+          <t>2574.82</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2471.95</t>
+          <t>2507.54</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1960.14</t>
+          <t>1861.62</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1944.71</t>
+          <t>1848.38</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1799.28</t>
+          <t>1780.07</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1785.57</t>
+          <t>1771.40</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3197.48</t>
+          <t>3207.55</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3301.45</t>
+          <t>3279.47</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2488.69</t>
+          <t>2568.95</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2472.82</t>
+          <t>2507.58</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1965.03</t>
+          <t>1960.69</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1949.64</t>
+          <t>1861.95</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1728.77</t>
+          <t>1783.18</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1723.14</t>
+          <t>1769.45</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3211.92</t>
+          <t>3212.51</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3306.08</t>
+          <t>3302.50</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2489.70</t>
+          <t>2570.49</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2475.46</t>
+          <t>2524.70</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1967.68</t>
+          <t>1974.32</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1952.35</t>
+          <t>1961.33</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1732.58</t>
+          <t>1798.13</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1723.71</t>
+          <t>1783.80</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3225.34</t>
+          <t>3215.35</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3311.87</t>
+          <t>3316.38</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2494.04</t>
+          <t>2577.55</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2473.38</t>
+          <t>2527.49</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1971.66</t>
+          <t>1975.93</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1956.37</t>
+          <t>1962.39</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1741.37</t>
+          <t>1783.67</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1725.00</t>
+          <t>1786.16</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3239.82</t>
+          <t>3225.40</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3321.99</t>
+          <t>3347.93</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2506.21</t>
+          <t>2585.25</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2480.82</t>
+          <t>2546.78</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1982.31</t>
+          <t>1979.40</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1967.19</t>
+          <t>1965.74</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1755.72</t>
+          <t>1786.05</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1739.37</t>
+          <t>1777.70</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3336.03</t>
+          <t>3308.02</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3414.10</t>
+          <t>3447.95</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2539.90</t>
+          <t>2630.75</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2526.81</t>
+          <t>2600.83</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2063.70</t>
+          <t>2051.47</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2048.70</t>
+          <t>2037.76</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1847.17</t>
+          <t>1854.90</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1830.06</t>
+          <t>1843.49</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4108.51</t>
+          <t>4031.04</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4167.23</t>
+          <t>4051.69</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3085.00</t>
+          <t>3220.19</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3017.47</t>
+          <t>3065.70</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2411.99</t>
+          <t>2351.00</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2374.85</t>
+          <t>2325.75</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2333.34</t>
+          <t>2445.06</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2336.46</t>
+          <t>2456.42</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2278.52</t>
+          <t>2246.40</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2323.41</t>
+          <t>2345.74</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>437.74</t>
+          <t>381.98</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2375.16</t>
+          <t>2319.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1680.18</t>
+          <t>1689.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1683.41</t>
+          <t>1692.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1767.67</t>
+          <t>1747.57</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1803.74</t>
+          <t>1788.97</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2965.31</t>
+          <t>3108.41</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3094.36</t>
+          <t>3267.39</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2417.24</t>
+          <t>2488.14</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2435.01</t>
+          <t>2471.42</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1869.90</t>
+          <t>1874.67</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1854.89</t>
+          <t>1858.04</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1667.97</t>
+          <t>1703.78</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1663.33</t>
+          <t>1698.37</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2990.71</t>
+          <t>3151.67</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3143.15</t>
+          <t>3317.80</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2413.85</t>
+          <t>2496.90</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2458.24</t>
+          <t>2523.35</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1884.69</t>
+          <t>1912.60</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1869.83</t>
+          <t>1897.96</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1715.52</t>
+          <t>1732.04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1706.75</t>
+          <t>1719.68</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2990.07</t>
+          <t>3158.45</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3159.12</t>
+          <t>3332.42</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2410.77</t>
+          <t>2395.74</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2467.69</t>
+          <t>2540.49</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1892.83</t>
+          <t>1918.83</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1878.17</t>
+          <t>1908.91</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1709.36</t>
+          <t>1740.38</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1715.54</t>
+          <t>1726.29</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2992.19</t>
+          <t>3161.87</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3181.10</t>
+          <t>3335.10</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2412.07</t>
+          <t>2400.32</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2481.12</t>
+          <t>2544.62</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1896.71</t>
+          <t>1927.61</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1882.02</t>
+          <t>1913.28</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1710.89</t>
+          <t>1744.70</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1719.93</t>
+          <t>1730.39</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3008.68</t>
+          <t>3164.26</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3200.03</t>
+          <t>3336.78</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2413.85</t>
+          <t>2404.69</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2476.61</t>
+          <t>2452.69</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1900.19</t>
+          <t>1930.95</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1885.54</t>
+          <t>1915.67</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1716.32</t>
+          <t>1747.68</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1703.56</t>
+          <t>1733.28</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3022.79</t>
+          <t>3166.27</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3210.05</t>
+          <t>3338.99</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2416.80</t>
+          <t>2415.67</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2473.89</t>
+          <t>2455.71</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1904.18</t>
+          <t>1934.63</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1889.54</t>
+          <t>1919.31</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1721.69</t>
+          <t>1751.55</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1708.93</t>
+          <t>1737.10</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3041.63</t>
+          <t>3072.32</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3226.74</t>
+          <t>3346.22</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2431.24</t>
+          <t>2424.17</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2478.84</t>
+          <t>2463.76</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1913.89</t>
+          <t>1942.99</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1899.29</t>
+          <t>1927.73</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1732.08</t>
+          <t>1758.97</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1719.08</t>
+          <t>1745.63</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3144.15</t>
+          <t>3165.46</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3334.02</t>
+          <t>3430.85</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2467.73</t>
+          <t>2456.53</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2524.32</t>
+          <t>2503.23</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1992.08</t>
+          <t>2011.55</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1977.38</t>
+          <t>1996.12</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1800.20</t>
+          <t>1826.02</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1787.08</t>
+          <t>1812.69</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3893.39</t>
+          <t>3941.39</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3975.37</t>
+          <t>4069.45</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3013.29</t>
+          <t>2947.69</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3054.60</t>
+          <t>3070.63</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2315.58</t>
+          <t>2303.78</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2285.33</t>
+          <t>2277.36</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2257.15</t>
+          <t>2225.40</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2267.35</t>
+          <t>2226.02</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2276.54</t>
+          <t>1935.47</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2362.01</t>
+          <t>2041.34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>888.86</t>
+          <t>224.52</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2394.25</t>
+          <t>1984.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1670.31</t>
+          <t>1379.22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1674.24</t>
+          <t>1382.83</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1707.07</t>
+          <t>1402.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1743.91</t>
+          <t>1452.22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2914.43</t>
+          <t>2671.16</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3110.76</t>
+          <t>2842.63</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2373.03</t>
+          <t>2145.25</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2417.15</t>
+          <t>2157.45</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1883.22</t>
+          <t>1608.50</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1868.38</t>
+          <t>1596.20</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1637.01</t>
+          <t>1401.56</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1629.24</t>
+          <t>1399.25</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2938.67</t>
+          <t>2705.27</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3133.55</t>
+          <t>2877.29</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2378.67</t>
+          <t>2138.63</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2429.76</t>
+          <t>2199.59</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1899.94</t>
+          <t>1632.80</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1885.19</t>
+          <t>1621.32</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1667.35</t>
+          <t>1434.68</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1653.25</t>
+          <t>1426.32</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2950.00</t>
+          <t>2718.82</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3143.41</t>
+          <t>2890.21</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2380.96</t>
+          <t>2142.40</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2436.10</t>
+          <t>2205.92</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1907.35</t>
+          <t>1643.19</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1892.64</t>
+          <t>1635.89</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1676.19</t>
+          <t>1446.90</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1661.81</t>
+          <t>1437.67</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2958.08</t>
+          <t>2727.08</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3150.33</t>
+          <t>2897.86</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2381.48</t>
+          <t>2146.82</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2436.92</t>
+          <t>2211.28</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1912.21</t>
+          <t>1652.81</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1897.53</t>
+          <t>1642.23</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1681.79</t>
+          <t>1453.85</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1667.35</t>
+          <t>1444.37</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2951.65</t>
+          <t>2733.51</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3147.21</t>
+          <t>2903.75</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2376.75</t>
+          <t>2150.47</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2435.75</t>
+          <t>2214.77</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1898.23</t>
+          <t>1657.50</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1883.77</t>
+          <t>1646.90</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1670.93</t>
+          <t>1458.97</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1656.67</t>
+          <t>1449.29</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2958.60</t>
+          <t>2739.66</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3155.83</t>
+          <t>2909.48</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2376.79</t>
+          <t>2159.25</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2436.68</t>
+          <t>2218.31</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1902.45</t>
+          <t>1662.20</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1888.03</t>
+          <t>1651.47</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1675.73</t>
+          <t>1463.81</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1661.47</t>
+          <t>1454.03</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2976.32</t>
+          <t>2750.51</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3167.31</t>
+          <t>2920.34</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2390.82</t>
+          <t>2168.45</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2443.00</t>
+          <t>2226.79</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1912.42</t>
+          <t>1672.27</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1898.10</t>
+          <t>1661.48</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1686.02</t>
+          <t>1473.55</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1671.85</t>
+          <t>1463.76</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3059.85</t>
+          <t>2840.22</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3251.71</t>
+          <t>3012.44</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2426.01</t>
+          <t>2207.81</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2488.94</t>
+          <t>2270.72</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1988.05</t>
+          <t>1748.81</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1973.83</t>
+          <t>1738.54</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1759.78</t>
+          <t>1546.20</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1745.70</t>
+          <t>1536.72</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3608.76</t>
+          <t>3388.44</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3767.19</t>
+          <t>3544.12</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2916.39</t>
+          <t>2637.07</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2972.87</t>
+          <t>2682.96</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2301.39</t>
+          <t>2080.49</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2272.01</t>
+          <t>2054.41</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2182.27</t>
+          <t>1971.83</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2196.97</t>
+          <t>1976.60</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2207.28</t>
+          <t>1813.21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2288.28</t>
+          <t>1933.99</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>791.71</t>
+          <t>471.05</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2306.46</t>
+          <t>1876.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1604.89</t>
+          <t>1309.22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1608.42</t>
+          <t>1312.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1644.87</t>
+          <t>1320.81</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1680.09</t>
+          <t>1377.25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2814.33</t>
+          <t>2500.75</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3012.22</t>
+          <t>2673.85</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2252.43</t>
+          <t>2042.55</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2310.24</t>
+          <t>2034.26</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1820.04</t>
+          <t>1517.59</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1805.59</t>
+          <t>1505.20</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1558.73</t>
+          <t>1316.32</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1550.99</t>
+          <t>1314.26</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2841.49</t>
+          <t>2499.59</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3038.63</t>
+          <t>2670.20</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2257.76</t>
+          <t>1986.81</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2335.20</t>
+          <t>2045.86</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1838.08</t>
+          <t>1516.38</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1823.68</t>
+          <t>1504.69</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1590.94</t>
+          <t>1334.36</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1576.18</t>
+          <t>1325.84</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2856.35</t>
+          <t>2502.68</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3052.69</t>
+          <t>2671.72</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2264.65</t>
+          <t>1985.39</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2347.01</t>
+          <t>2053.71</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1847.41</t>
+          <t>1519.46</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1833.06</t>
+          <t>1511.73</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1605.19</t>
+          <t>1340.90</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1589.83</t>
+          <t>1331.54</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2867.62</t>
+          <t>2502.69</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3063.32</t>
+          <t>2671.24</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2270.83</t>
+          <t>1988.78</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2351.86</t>
+          <t>2058.09</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1854.04</t>
+          <t>1523.83</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1839.73</t>
+          <t>1513.09</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1615.53</t>
+          <t>1343.97</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1600.05</t>
+          <t>1334.48</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2877.20</t>
+          <t>2502.71</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3072.40</t>
+          <t>2670.53</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2276.19</t>
+          <t>1992.42</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2355.84</t>
+          <t>2061.44</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1859.61</t>
+          <t>1524.54</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1845.33</t>
+          <t>1513.98</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1624.23</t>
+          <t>1346.10</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1608.73</t>
+          <t>1336.62</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2886.42</t>
+          <t>2476.41</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3081.20</t>
+          <t>2641.89</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2281.74</t>
+          <t>2001.46</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2360.21</t>
+          <t>2065.04</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1865.34</t>
+          <t>1521.40</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1851.09</t>
+          <t>1512.34</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1632.81</t>
+          <t>1343.29</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1617.32</t>
+          <t>1333.68</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2899.93</t>
+          <t>2481.10</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3094.53</t>
+          <t>2646.39</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2297.69</t>
+          <t>2010.28</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2369.12</t>
+          <t>2073.22</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1876.32</t>
+          <t>1528.60</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1862.15</t>
+          <t>1519.49</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1647.22</t>
+          <t>1350.60</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1631.76</t>
+          <t>1340.92</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2986.67</t>
+          <t>2557.50</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3178.38</t>
+          <t>2725.54</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2333.49</t>
+          <t>2048.79</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2412.01</t>
+          <t>2116.51</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1949.04</t>
+          <t>1594.25</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1934.82</t>
+          <t>1586.65</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1722.76</t>
+          <t>1414.25</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1708.79</t>
+          <t>1404.50</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3460.61</t>
+          <t>3036.27</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3622.73</t>
+          <t>3196.29</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2741.24</t>
+          <t>2475.37</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2803.35</t>
+          <t>2524.36</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2234.55</t>
+          <t>1921.81</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2202.56</t>
+          <t>1898.73</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2128.16</t>
+          <t>1817.51</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2128.70</t>
+          <t>1822.59</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2118.66</t>
+          <t>1624.59</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2196.96</t>
+          <t>1715.98</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1085.00</t>
+          <t>581.88</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2223.52</t>
+          <t>1703.47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1580.44</t>
+          <t>1156.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1583.95</t>
+          <t>1159.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1630.61</t>
+          <t>1186.70</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1668.67</t>
+          <t>1248.35</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2701.27</t>
+          <t>2258.87</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2890.16</t>
+          <t>2401.24</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2197.26</t>
+          <t>1869.50</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2236.90</t>
+          <t>1847.69</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1747.44</t>
+          <t>1346.01</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1734.75</t>
+          <t>1335.94</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1521.90</t>
+          <t>1168.79</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1517.82</t>
+          <t>1170.57</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2726.12</t>
+          <t>2266.48</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2911.37</t>
+          <t>2408.48</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2190.67</t>
+          <t>1830.70</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2256.97</t>
+          <t>1872.02</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1762.99</t>
+          <t>1356.82</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1749.41</t>
+          <t>1347.40</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1548.39</t>
+          <t>1190.07</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1535.51</t>
+          <t>1184.61</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2739.62</t>
+          <t>2268.80</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2924.14</t>
+          <t>2410.14</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2193.69</t>
+          <t>1825.71</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2275.14</t>
+          <t>1876.14</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1771.76</t>
+          <t>1361.03</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1758.22</t>
+          <t>1355.55</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1557.49</t>
+          <t>1196.48</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1545.45</t>
+          <t>1189.72</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2750.92</t>
+          <t>2270.06</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2933.96</t>
+          <t>2410.82</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2203.97</t>
+          <t>1826.41</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2279.93</t>
+          <t>1878.15</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1778.07</t>
+          <t>1367.29</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1764.56</t>
+          <t>1358.55</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1564.69</t>
+          <t>1200.25</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1552.64</t>
+          <t>1193.11</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2760.47</t>
+          <t>2271.12</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2942.36</t>
+          <t>2411.42</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2209.10</t>
+          <t>1828.10</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2287.04</t>
+          <t>1879.72</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1783.37</t>
+          <t>1369.70</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1769.88</t>
+          <t>1361.09</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1570.71</t>
+          <t>1203.24</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1558.68</t>
+          <t>1196.00</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2769.57</t>
+          <t>2272.70</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2950.52</t>
+          <t>2412.67</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2214.54</t>
+          <t>1835.42</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2293.68</t>
+          <t>1881.79</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1790.07</t>
+          <t>1372.52</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1776.61</t>
+          <t>1363.98</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1576.74</t>
+          <t>1207.19</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1564.76</t>
+          <t>1199.68</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2782.71</t>
+          <t>2278.80</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2963.28</t>
+          <t>2418.90</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2232.18</t>
+          <t>1842.22</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2305.20</t>
+          <t>1888.20</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1800.62</t>
+          <t>1380.00</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1787.23</t>
+          <t>1371.57</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1588.92</t>
+          <t>1214.25</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1575.73</t>
+          <t>1208.24</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2863.13</t>
+          <t>2353.74</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3046.98</t>
+          <t>2496.70</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2271.71</t>
+          <t>1876.56</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2348.37</t>
+          <t>1927.32</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1870.09</t>
+          <t>1447.16</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1856.64</t>
+          <t>1439.04</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1657.82</t>
+          <t>1276.76</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1644.64</t>
+          <t>1269.27</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3329.99</t>
+          <t>2803.52</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3479.19</t>
+          <t>2924.53</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2701.56</t>
+          <t>2284.31</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2763.66</t>
+          <t>2312.67</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2148.36</t>
+          <t>1748.51</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2118.24</t>
+          <t>1729.15</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2049.34</t>
+          <t>1668.29</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2050.27</t>
+          <t>1676.52</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2076.88</t>
+          <t>1674.72</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2150.29</t>
+          <t>1758.04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1347.70</t>
+          <t>868.05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2130.30</t>
+          <t>1711.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1478.18</t>
+          <t>1170.04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1481.33</t>
+          <t>1171.78</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1528.30</t>
+          <t>1204.73</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1612.26</t>
+          <t>1269.49</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2703.18</t>
+          <t>2327.05</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2889.63</t>
+          <t>2448.38</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2200.63</t>
+          <t>1878.71</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2213.87</t>
+          <t>1821.26</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1657.59</t>
+          <t>1339.09</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1645.32</t>
+          <t>1326.83</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1481.98</t>
+          <t>1202.10</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1481.13</t>
+          <t>1201.50</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2727.17</t>
+          <t>2332.01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2912.03</t>
+          <t>2451.02</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2195.32</t>
+          <t>1800.27</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2244.91</t>
+          <t>1819.50</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1669.48</t>
+          <t>1339.61</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1659.84</t>
+          <t>1328.04</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1506.48</t>
+          <t>1223.08</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1496.91</t>
+          <t>1215.51</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2743.14</t>
+          <t>2333.59</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2924.00</t>
+          <t>2452.62</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2202.49</t>
+          <t>1789.41</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2262.11</t>
+          <t>1819.69</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1679.22</t>
+          <t>1340.52</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1672.25</t>
+          <t>1332.93</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1515.76</t>
+          <t>1226.27</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1505.02</t>
+          <t>1220.49</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2756.70</t>
+          <t>2334.57</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2934.56</t>
+          <t>2454.04</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2212.11</t>
+          <t>1787.11</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2274.30</t>
+          <t>1818.86</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1687.88</t>
+          <t>1344.57</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1681.13</t>
+          <t>1333.17</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1522.78</t>
+          <t>1225.38</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1511.74</t>
+          <t>1222.30</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2766.83</t>
+          <t>2335.48</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2945.24</t>
+          <t>2455.46</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2222.35</t>
+          <t>1786.31</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2285.29</t>
+          <t>1820.71</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1697.12</t>
+          <t>1344.91</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1687.76</t>
+          <t>1333.32</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1528.90</t>
+          <t>1221.64</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1517.82</t>
+          <t>1218.07</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2778.39</t>
+          <t>2337.02</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2955.40</t>
+          <t>2457.51</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2230.99</t>
+          <t>1791.37</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2296.66</t>
+          <t>1822.94</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1705.31</t>
+          <t>1345.24</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1693.14</t>
+          <t>1334.16</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1535.17</t>
+          <t>1218.50</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1524.13</t>
+          <t>1216.95</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2793.49</t>
+          <t>2343.36</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2969.71</t>
+          <t>2464.47</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2251.38</t>
+          <t>1796.34</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2310.17</t>
+          <t>1829.28</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1715.93</t>
+          <t>1351.36</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1708.71</t>
+          <t>1339.72</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1546.76</t>
+          <t>1225.29</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1535.79</t>
+          <t>1221.70</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2884.47</t>
+          <t>2421.61</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3059.67</t>
+          <t>2542.30</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2288.59</t>
+          <t>1831.51</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2356.45</t>
+          <t>1865.91</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1789.76</t>
+          <t>1413.71</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1787.82</t>
+          <t>1402.07</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1619.53</t>
+          <t>1285.46</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1608.56</t>
+          <t>1276.30</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3219.24</t>
+          <t>2871.06</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3349.53</t>
+          <t>2942.34</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2737.06</t>
+          <t>2296.18</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2785.50</t>
+          <t>2279.82</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2104.77</t>
+          <t>1714.32</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2074.08</t>
+          <t>1693.32</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2040.11</t>
+          <t>1663.33</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2044.82</t>
+          <t>1674.53</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2267.33</t>
+          <t>1732.86</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2353.97</t>
+          <t>1841.46</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1456.28</t>
+          <t>1036.09</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2355.25</t>
+          <t>1773.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1668.65</t>
+          <t>1173.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1672.53</t>
+          <t>1176.31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1726.47</t>
+          <t>1280.57</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1764.61</t>
+          <t>1357.61</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2876.95</t>
+          <t>2390.58</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3097.58</t>
+          <t>2501.06</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2356.25</t>
+          <t>1959.43</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2359.94</t>
+          <t>1838.46</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1843.93</t>
+          <t>1340.60</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1828.89</t>
+          <t>1328.94</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1631.56</t>
+          <t>1269.50</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1629.60</t>
+          <t>1272.99</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2898.21</t>
+          <t>2394.86</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3123.17</t>
+          <t>2414.42</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2348.12</t>
+          <t>1860.87</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2380.59</t>
+          <t>1824.39</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1858.98</t>
+          <t>1322.80</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1844.68</t>
+          <t>1312.30</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1658.37</t>
+          <t>1289.86</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1646.57</t>
+          <t>1286.23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2915.09</t>
+          <t>2397.31</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3137.51</t>
+          <t>2411.26</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2350.82</t>
+          <t>1851.80</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2393.62</t>
+          <t>1825.36</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1870.04</t>
+          <t>1324.17</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1855.75</t>
+          <t>1317.34</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1668.53</t>
+          <t>1292.73</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1656.42</t>
+          <t>1291.30</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2928.44</t>
+          <t>2399.23</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3168.05</t>
+          <t>2409.06</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2357.93</t>
+          <t>1850.33</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2399.71</t>
+          <t>1825.53</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1878.26</t>
+          <t>1328.26</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1863.98</t>
+          <t>1318.40</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1676.30</t>
+          <t>1291.55</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1663.95</t>
+          <t>1295.21</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2939.91</t>
+          <t>2400.94</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3177.90</t>
+          <t>2407.56</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2364.10</t>
+          <t>1850.51</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2404.71</t>
+          <t>1825.64</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1884.64</t>
+          <t>1329.51</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1869.05</t>
+          <t>1319.81</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1682.91</t>
+          <t>1291.51</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1670.53</t>
+          <t>1298.80</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2950.85</t>
+          <t>2403.15</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3187.53</t>
+          <t>2407.06</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2369.19</t>
+          <t>1856.49</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2410.01</t>
+          <t>1826.41</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1890.50</t>
+          <t>1331.44</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1876.30</t>
+          <t>1321.74</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1689.56</t>
+          <t>1290.72</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1676.58</t>
+          <t>1302.13</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2966.36</t>
+          <t>2409.91</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3203.07</t>
+          <t>2411.31</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2387.75</t>
+          <t>1862.20</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2419.93</t>
+          <t>1831.58</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1903.22</t>
+          <t>1338.11</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1889.08</t>
+          <t>1328.47</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1701.32</t>
+          <t>1293.83</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1688.39</t>
+          <t>1306.87</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3050.90</t>
+          <t>2489.23</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3296.92</t>
+          <t>2483.76</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2422.69</t>
+          <t>1897.63</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2464.24</t>
+          <t>1869.74</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1979.08</t>
+          <t>1403.58</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1964.90</t>
+          <t>1394.22</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1772.89</t>
+          <t>1333.93</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1759.93</t>
+          <t>1349.03</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3565.30</t>
+          <t>2935.71</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3787.53</t>
+          <t>2896.66</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2871.49</t>
+          <t>2380.12</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2939.75</t>
+          <t>2299.50</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2298.66</t>
+          <t>1708.26</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2266.72</t>
+          <t>1687.33</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2186.76</t>
+          <t>1734.22</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2188.94</t>
+          <t>1747.36</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2388.84</t>
+          <t>2138.67</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2426.38</t>
+          <t>2084.89</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1675.97</t>
+          <t>1427.30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2415.57</t>
+          <t>1999.91</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1697.83</t>
+          <t>1363.69</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1699.70</t>
+          <t>1369.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1841.38</t>
+          <t>1559.03</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1878.89</t>
+          <t>1624.18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3067.83</t>
+          <t>2875.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3145.00</t>
+          <t>2863.08</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2486.55</t>
+          <t>2323.37</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2430.72</t>
+          <t>2104.03</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1923.12</t>
+          <t>1566.07</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1908.53</t>
+          <t>1553.82</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1712.83</t>
+          <t>1540.81</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1721.61</t>
+          <t>1540.45</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3094.07</t>
+          <t>2881.51</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3162.50</t>
+          <t>2881.10</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2516.11</t>
+          <t>2263.75</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2454.68</t>
+          <t>2126.08</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1927.15</t>
+          <t>1583.70</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1911.43</t>
+          <t>1570.42</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1743.82</t>
+          <t>1560.05</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1735.98</t>
+          <t>1552.30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3111.82</t>
+          <t>2878.99</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3166.69</t>
+          <t>2888.30</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2521.26</t>
+          <t>2242.77</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2464.95</t>
+          <t>2128.87</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1890.69</t>
+          <t>1588.29</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1874.12</t>
+          <t>1578.88</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1769.94</t>
+          <t>1560.98</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1743.37</t>
+          <t>1552.79</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3124.14</t>
+          <t>2875.24</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3180.63</t>
+          <t>2894.06</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2519.31</t>
+          <t>2234.47</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2466.44</t>
+          <t>2129.27</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1895.42</t>
+          <t>1600.64</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1881.11</t>
+          <t>1584.46</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1771.37</t>
+          <t>1557.36</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1749.99</t>
+          <t>1550.32</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3133.43</t>
+          <t>2875.46</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3200.32</t>
+          <t>2897.32</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2519.36</t>
+          <t>2229.00</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2467.53</t>
+          <t>2129.90</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1902.26</t>
+          <t>1606.59</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1887.50</t>
+          <t>1592.69</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1756.97</t>
+          <t>1543.53</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1765.83</t>
+          <t>1545.32</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3144.43</t>
+          <t>2875.16</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3212.85</t>
+          <t>2901.58</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2522.26</t>
+          <t>2231.21</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2469.53</t>
+          <t>2133.04</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1908.20</t>
+          <t>1611.19</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1893.46</t>
+          <t>1597.65</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1754.72</t>
+          <t>1539.82</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1751.28</t>
+          <t>1532.34</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3159.30</t>
+          <t>2880.61</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3233.74</t>
+          <t>2910.66</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2534.10</t>
+          <t>2234.59</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2481.50</t>
+          <t>2139.95</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1919.42</t>
+          <t>1621.50</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1904.75</t>
+          <t>1608.18</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1760.08</t>
+          <t>1541.91</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1750.63</t>
+          <t>1531.13</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3240.51</t>
+          <t>2968.33</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3310.54</t>
+          <t>3002.80</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2564.13</t>
+          <t>2273.48</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2531.96</t>
+          <t>2181.90</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1998.47</t>
+          <t>1694.81</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1982.53</t>
+          <t>1682.35</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1836.55</t>
+          <t>1611.17</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1825.66</t>
+          <t>1601.84</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3891.10</t>
+          <t>3631.91</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3906.86</t>
+          <t>3705.44</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3153.83</t>
+          <t>2766.07</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3049.22</t>
+          <t>2659.02</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2348.20</t>
+          <t>2035.04</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2318.13</t>
+          <t>2003.32</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2367.84</t>
+          <t>2075.86</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2376.02</t>
+          <t>2084.18</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2371.30</t>
+          <t>2284.32</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2461.47</t>
+          <t>2247.38</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1404.24</t>
+          <t>1077.18</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2428.99</t>
+          <t>2151.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1740.14</t>
+          <t>1495.31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1743.68</t>
+          <t>1496.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1833.04</t>
+          <t>1708.87</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1882.56</t>
+          <t>1752.02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3050.55</t>
+          <t>3054.91</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3209.67</t>
+          <t>3081.55</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2512.37</t>
+          <t>2478.28</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2478.97</t>
+          <t>2280.60</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1932.74</t>
+          <t>1719.82</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1943.65</t>
+          <t>1704.05</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1748.39</t>
+          <t>1693.88</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1758.92</t>
+          <t>1692.49</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3080.57</t>
+          <t>3086.90</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3244.22</t>
+          <t>3110.29</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2513.45</t>
+          <t>2461.57</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2507.04</t>
+          <t>2317.45</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1972.77</t>
+          <t>1744.07</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1967.96</t>
+          <t>1727.45</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1779.22</t>
+          <t>1724.39</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1782.29</t>
+          <t>1709.81</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3098.50</t>
+          <t>3105.23</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3258.84</t>
+          <t>3118.59</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2504.59</t>
+          <t>2471.09</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2521.00</t>
+          <t>2328.91</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1966.36</t>
+          <t>1752.02</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1973.75</t>
+          <t>1741.03</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1790.59</t>
+          <t>1737.67</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1779.80</t>
+          <t>1722.65</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3112.01</t>
+          <t>3110.81</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3270.02</t>
+          <t>3127.00</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2509.77</t>
+          <t>2485.64</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2526.46</t>
+          <t>2330.70</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1972.59</t>
+          <t>1757.27</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1958.35</t>
+          <t>1747.06</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1794.46</t>
+          <t>1752.47</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1786.01</t>
+          <t>1733.06</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3123.36</t>
+          <t>3107.14</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3279.86</t>
+          <t>3124.88</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2511.35</t>
+          <t>2492.90</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2530.77</t>
+          <t>2330.12</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1977.20</t>
+          <t>1753.07</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1962.99</t>
+          <t>1740.29</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1798.38</t>
+          <t>1754.40</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1790.61</t>
+          <t>1747.24</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3134.05</t>
+          <t>3116.33</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3287.82</t>
+          <t>3128.50</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2517.41</t>
+          <t>2517.72</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2534.54</t>
+          <t>2329.24</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1981.13</t>
+          <t>1749.22</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1967.02</t>
+          <t>1734.85</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1800.23</t>
+          <t>1757.24</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1795.73</t>
+          <t>1747.34</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3145.76</t>
+          <t>3102.47</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3302.09</t>
+          <t>3136.53</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2533.65</t>
+          <t>2532.29</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2543.76</t>
+          <t>2334.20</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1992.44</t>
+          <t>1758.09</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1978.58</t>
+          <t>1744.84</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1809.77</t>
+          <t>1764.46</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1804.73</t>
+          <t>1754.75</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3230.15</t>
+          <t>3182.91</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3393.51</t>
+          <t>3228.54</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2566.39</t>
+          <t>2567.83</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2591.61</t>
+          <t>2375.78</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2096.89</t>
+          <t>1831.70</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2084.39</t>
+          <t>1818.92</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1882.59</t>
+          <t>1836.83</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1868.65</t>
+          <t>1825.97</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3954.11</t>
+          <t>3945.72</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4039.43</t>
+          <t>3935.91</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3173.98</t>
+          <t>3195.10</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3065.93</t>
+          <t>2852.78</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2445.71</t>
+          <t>2211.31</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2409.07</t>
+          <t>2176.44</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2420.23</t>
+          <t>2344.03</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2431.22</t>
+          <t>2363.63</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2364.50</t>
+          <t>2425.81</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2426.44</t>
+          <t>2140.09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>702.56</t>
+          <t>731.87</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2384.67</t>
+          <t>2076.63</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1716.85</t>
+          <t>1625.34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1716.84</t>
+          <t>1628.98</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1844.69</t>
+          <t>1793.91</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1883.55</t>
+          <t>1851.11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3128.24</t>
+          <t>3189.53</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3238.74</t>
+          <t>2894.11</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2488.05</t>
+          <t>2549.40</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2447.43</t>
+          <t>2209.81</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1926.74</t>
+          <t>1772.73</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1911.06</t>
+          <t>1724.57</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1794.09</t>
+          <t>1767.83</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1783.83</t>
+          <t>1771.36</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3154.73</t>
+          <t>3214.87</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3273.95</t>
+          <t>2911.53</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2481.60</t>
+          <t>2558.71</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2478.78</t>
+          <t>2232.32</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1949.98</t>
+          <t>1711.12</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1934.48</t>
+          <t>1697.08</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1822.34</t>
+          <t>1800.22</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1809.23</t>
+          <t>1788.94</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3087.02</t>
+          <t>3231.01</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3288.83</t>
+          <t>2909.10</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2490.22</t>
+          <t>2552.94</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2522.68</t>
+          <t>2229.23</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1961.28</t>
+          <t>1707.97</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1946.44</t>
+          <t>1697.54</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1829.83</t>
+          <t>1804.61</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1814.08</t>
+          <t>1791.72</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3094.06</t>
+          <t>3238.98</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3297.13</t>
+          <t>2901.77</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2492.21</t>
+          <t>2550.03</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2494.68</t>
+          <t>2221.93</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1968.86</t>
+          <t>1893.54</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1953.27</t>
+          <t>1712.38</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1809.06</t>
+          <t>1806.84</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1803.87</t>
+          <t>1787.93</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3103.39</t>
+          <t>3245.49</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3304.65</t>
+          <t>2839.52</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2496.54</t>
+          <t>2539.00</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2496.50</t>
+          <t>2215.04</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1974.97</t>
+          <t>1889.00</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1959.22</t>
+          <t>1878.19</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1806.19</t>
+          <t>1802.84</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1793.84</t>
+          <t>1787.88</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3112.14</t>
+          <t>3252.31</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3312.61</t>
+          <t>2916.90</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2501.74</t>
+          <t>2545.44</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2496.83</t>
+          <t>2154.20</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1981.06</t>
+          <t>1890.44</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1965.21</t>
+          <t>1877.49</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1816.12</t>
+          <t>1804.57</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1800.73</t>
+          <t>1790.61</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3125.13</t>
+          <t>3263.74</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3325.25</t>
+          <t>2855.50</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2512.55</t>
+          <t>2551.37</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2501.25</t>
+          <t>2163.07</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1992.47</t>
+          <t>1899.21</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1976.66</t>
+          <t>1886.18</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1826.23</t>
+          <t>1811.03</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1810.96</t>
+          <t>1796.36</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3207.22</t>
+          <t>3351.21</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3412.95</t>
+          <t>2942.89</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2544.71</t>
+          <t>2588.38</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2548.02</t>
+          <t>2204.05</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2066.98</t>
+          <t>1983.54</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2051.00</t>
+          <t>1971.07</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1896.75</t>
+          <t>1888.25</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1881.62</t>
+          <t>1873.66</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4062.52</t>
+          <t>4025.43</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>4068.45</t>
+          <t>3552.08</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3138.73</t>
+          <t>3159.52</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2997.77</t>
+          <t>2658.92</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2445.04</t>
+          <t>2046.02</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2411.85</t>
+          <t>2020.07</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2468.00</t>
+          <t>2382.10</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2475.14</t>
+          <t>2384.85</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2076.88</t>
+          <t>1624.59</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2150.29</t>
+          <t>1715.98</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>437.74</t>
+          <t>224.52</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2130.30</t>
+          <t>1703.47</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1478.18</t>
+          <t>1156.41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1481.33</t>
+          <t>1159.96</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1528.30</t>
+          <t>1186.70</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1612.26</t>
+          <t>1248.35</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2701.27</t>
+          <t>2258.87</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2889.63</t>
+          <t>2401.24</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2197.26</t>
+          <t>1869.50</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2213.87</t>
+          <t>1821.26</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1657.59</t>
+          <t>1339.09</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1645.32</t>
+          <t>1326.83</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1481.98</t>
+          <t>1168.79</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1481.13</t>
+          <t>1170.57</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2726.12</t>
+          <t>2266.48</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2911.37</t>
+          <t>2408.48</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2190.67</t>
+          <t>1800.27</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2244.91</t>
+          <t>1819.50</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1669.48</t>
+          <t>1322.80</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1659.84</t>
+          <t>1312.30</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1506.48</t>
+          <t>1190.07</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1496.91</t>
+          <t>1184.61</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2739.62</t>
+          <t>2268.80</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2924.00</t>
+          <t>2410.14</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2193.69</t>
+          <t>1789.41</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2262.11</t>
+          <t>1819.69</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1679.22</t>
+          <t>1324.17</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1672.25</t>
+          <t>1317.34</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1515.76</t>
+          <t>1196.48</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1505.02</t>
+          <t>1189.72</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2750.92</t>
+          <t>2270.06</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2933.96</t>
+          <t>2409.06</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2203.97</t>
+          <t>1787.11</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2274.30</t>
+          <t>1818.86</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1687.88</t>
+          <t>1328.26</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1681.13</t>
+          <t>1318.40</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1522.78</t>
+          <t>1200.25</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1511.74</t>
+          <t>1193.11</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2760.47</t>
+          <t>2271.12</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2942.36</t>
+          <t>2407.56</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2209.10</t>
+          <t>1786.31</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2285.29</t>
+          <t>1820.71</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1697.12</t>
+          <t>1329.51</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1687.76</t>
+          <t>1319.81</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1528.90</t>
+          <t>1203.24</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1517.82</t>
+          <t>1196.00</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2769.57</t>
+          <t>2272.70</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2950.52</t>
+          <t>2407.06</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2214.54</t>
+          <t>1791.37</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2293.68</t>
+          <t>1822.94</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1705.31</t>
+          <t>1331.44</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1693.14</t>
+          <t>1321.74</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1535.17</t>
+          <t>1207.19</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1524.13</t>
+          <t>1199.68</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2782.71</t>
+          <t>2278.80</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2963.28</t>
+          <t>2411.31</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2232.18</t>
+          <t>1796.34</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2305.20</t>
+          <t>1829.28</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1715.93</t>
+          <t>1338.11</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1708.71</t>
+          <t>1328.47</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1546.76</t>
+          <t>1214.25</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1535.79</t>
+          <t>1208.24</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2863.13</t>
+          <t>2353.74</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3046.98</t>
+          <t>2483.76</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2271.71</t>
+          <t>1831.51</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2348.37</t>
+          <t>1865.91</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1789.76</t>
+          <t>1403.58</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1787.82</t>
+          <t>1394.22</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1619.53</t>
+          <t>1276.76</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1608.56</t>
+          <t>1269.27</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3219.24</t>
+          <t>2803.52</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3349.53</t>
+          <t>2896.66</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2701.56</t>
+          <t>2284.31</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2763.66</t>
+          <t>2279.82</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2104.77</t>
+          <t>1708.26</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2074.08</t>
+          <t>1687.33</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2040.11</t>
+          <t>1663.33</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2044.82</t>
+          <t>1674.53</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2388.84</t>
+          <t>2464.81</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2461.47</t>
+          <t>2392.41</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1675.97</t>
+          <t>1427.30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2428.99</t>
+          <t>2329.43</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1740.14</t>
+          <t>1689.93</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1743.68</t>
+          <t>1692.31</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1844.69</t>
+          <t>1793.91</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1883.55</t>
+          <t>1860.23</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3128.24</t>
+          <t>3274.04</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3252.81</t>
+          <t>3267.39</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2512.37</t>
+          <t>2622.40</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2478.97</t>
+          <t>2471.42</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1932.74</t>
+          <t>1874.67</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1943.65</t>
+          <t>1858.04</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1794.09</t>
+          <t>1804.03</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1783.83</t>
+          <t>1797.44</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3164.57</t>
+          <t>3299.67</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3285.28</t>
+          <t>3317.80</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2516.11</t>
+          <t>2605.13</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2507.04</t>
+          <t>2523.35</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1972.77</t>
+          <t>1912.60</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1967.96</t>
+          <t>1897.96</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1822.34</t>
+          <t>1837.84</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1809.87</t>
+          <t>1823.84</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3184.89</t>
+          <t>3307.65</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3296.30</t>
+          <t>3332.42</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2521.26</t>
+          <t>2603.86</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2522.68</t>
+          <t>2540.49</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1966.36</t>
+          <t>1918.83</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1973.75</t>
+          <t>1908.91</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1829.83</t>
+          <t>1845.88</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1814.97</t>
+          <t>1833.31</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3197.48</t>
+          <t>3309.53</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3301.45</t>
+          <t>3335.10</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2519.31</t>
+          <t>2607.08</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2526.46</t>
+          <t>2544.62</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1972.59</t>
+          <t>1960.69</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1958.35</t>
+          <t>1913.28</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1809.06</t>
+          <t>1858.82</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1803.87</t>
+          <t>1832.92</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3211.92</t>
+          <t>3310.28</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3306.08</t>
+          <t>3336.78</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2519.36</t>
+          <t>2598.61</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2530.77</t>
+          <t>2524.70</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1977.20</t>
+          <t>1974.32</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1962.99</t>
+          <t>1961.33</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1807.00</t>
+          <t>1802.84</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1795.52</t>
+          <t>1787.88</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3225.34</t>
+          <t>3309.15</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3312.61</t>
+          <t>3338.99</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2522.26</t>
+          <t>2593.97</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2534.54</t>
+          <t>2527.49</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1981.13</t>
+          <t>1975.93</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1967.02</t>
+          <t>1962.39</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1816.12</t>
+          <t>1804.57</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1800.73</t>
+          <t>1790.61</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3239.82</t>
+          <t>3300.20</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3325.25</t>
+          <t>3347.93</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2534.10</t>
+          <t>2588.55</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2543.76</t>
+          <t>2546.78</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1992.47</t>
+          <t>1979.40</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1978.58</t>
+          <t>1965.74</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1826.23</t>
+          <t>1811.03</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1810.96</t>
+          <t>1796.36</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3336.03</t>
+          <t>3385.80</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3430.39</t>
+          <t>3447.95</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2593.86</t>
+          <t>2630.75</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2591.61</t>
+          <t>2600.83</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2096.89</t>
+          <t>2051.47</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2084.39</t>
+          <t>2037.76</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1896.75</t>
+          <t>1888.25</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1881.62</t>
+          <t>1873.66</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4108.51</t>
+          <t>4190.71</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4167.23</t>
+          <t>4069.45</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3178.74</t>
+          <t>3221.53</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3065.93</t>
+          <t>3070.63</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2445.71</t>
+          <t>2351.00</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2411.85</t>
+          <t>2325.75</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2468.00</t>
+          <t>2472.13</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2475.14</t>
+          <t>2477.39</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
